--- a/DesignDocument.xlsx
+++ b/DesignDocument.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\repogame\Game\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20055" windowHeight="7170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20055" windowHeight="7170"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,17 +136,34 @@
                                               -&gt; Xây dựng được Amo</t>
   </si>
   <si>
-    <t xml:space="preserve">hello. Sdl Game là một dự án về Game2D , giống với các game của hãng nitendo của 10 -15 năm về trước, Dự án này là kết thành quả của việc nghiên cứu kỹ 
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>hello welcome Chuc to passion lab.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Sdl Game là một dự án về Game2D , giống với các game của hãng nitendo của 10 -15 năm về trước, Dự án này là kết thành quả của việc nghiên cứu kỹ 
 thuật làm game2d sử dụng ngôn ngữ lập trình c++ và thự viện lập trình game2d, không hề dựa vào vào một công cụ hỗ trợ nào cho việc tạo sẵn các giao 
 diện đồ họa.
 Bên cạnh việc sử dụng ngôn ngữ c++ và thư viện SDL, thì các hình ảnh và âm thanh được lấy từ tài nguyên bên ngoài. </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +204,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -805,232 +823,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="92"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="92"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="92"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="92"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="92"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="92"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="92"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="92"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="92"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1038,57 +855,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1096,8 +862,260 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="92"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="92"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="92"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="92"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="92"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="92"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="92"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="92"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="92"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1136,7 +1154,7 @@
         <xdr:cNvPr id="1026" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1182,7 +1200,7 @@
         <xdr:cNvPr id="1028" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1228,7 +1246,7 @@
         <xdr:cNvPr id="1030" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1274,7 +1292,7 @@
         <xdr:cNvPr id="6" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1320,7 +1338,7 @@
         <xdr:cNvPr id="8" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1348,61 +1366,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
-          <xdr:row>68</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>92</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1035" name="Object 11" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1035"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -1449,7 +1412,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1481,27 +1444,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1533,24 +1478,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1726,14 +1653,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AN108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E9" sqref="E9:AN15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="3" width="3.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="6.85546875" style="1" customWidth="1"/>
@@ -1742,661 +1669,661 @@
     <col min="41" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="87" t="s">
+    <row r="1" spans="1:40" ht="19.5" thickBot="1">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
-      <c r="W1" s="88"/>
-      <c r="X1" s="88"/>
-      <c r="Y1" s="88"/>
-      <c r="Z1" s="88"/>
-      <c r="AA1" s="88"/>
-      <c r="AB1" s="88"/>
-      <c r="AC1" s="88"/>
-      <c r="AD1" s="88"/>
-      <c r="AE1" s="88"/>
-      <c r="AF1" s="88"/>
-      <c r="AG1" s="88"/>
-      <c r="AH1" s="88"/>
-      <c r="AI1" s="88"/>
-      <c r="AJ1" s="88"/>
-      <c r="AK1" s="88"/>
-      <c r="AL1" s="88"/>
-      <c r="AM1" s="88"/>
-      <c r="AN1" s="103"/>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="104" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16"/>
+      <c r="AN1" s="17"/>
+    </row>
+    <row r="2" spans="1:40">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="105"/>
-      <c r="Y2" s="105"/>
-      <c r="Z2" s="105"/>
-      <c r="AA2" s="105"/>
-      <c r="AB2" s="105"/>
-      <c r="AC2" s="105"/>
-      <c r="AD2" s="105"/>
-      <c r="AE2" s="105"/>
-      <c r="AF2" s="105"/>
-      <c r="AG2" s="105"/>
-      <c r="AH2" s="105"/>
-      <c r="AI2" s="105"/>
-      <c r="AJ2" s="105"/>
-      <c r="AK2" s="105"/>
-      <c r="AL2" s="105"/>
-      <c r="AM2" s="105"/>
-      <c r="AN2" s="106"/>
-    </row>
-    <row r="3" spans="1:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="107"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="108"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
-      <c r="X3" s="108"/>
-      <c r="Y3" s="108"/>
-      <c r="Z3" s="108"/>
-      <c r="AA3" s="108"/>
-      <c r="AB3" s="108"/>
-      <c r="AC3" s="108"/>
-      <c r="AD3" s="108"/>
-      <c r="AE3" s="108"/>
-      <c r="AF3" s="108"/>
-      <c r="AG3" s="108"/>
-      <c r="AH3" s="108"/>
-      <c r="AI3" s="108"/>
-      <c r="AJ3" s="108"/>
-      <c r="AK3" s="108"/>
-      <c r="AL3" s="108"/>
-      <c r="AM3" s="108"/>
-      <c r="AN3" s="109"/>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A4" s="91" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="19"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="19"/>
+      <c r="AN2" s="20"/>
+    </row>
+    <row r="3" spans="1:40" ht="19.5" thickBot="1">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="22"/>
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="22"/>
+      <c r="AJ3" s="22"/>
+      <c r="AK3" s="22"/>
+      <c r="AL3" s="22"/>
+      <c r="AM3" s="22"/>
+      <c r="AN3" s="23"/>
+    </row>
+    <row r="4" spans="1:40">
+      <c r="A4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="92"/>
-      <c r="Q4" s="92"/>
-      <c r="R4" s="92"/>
-      <c r="S4" s="110"/>
-      <c r="T4" s="91" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="U4" s="92"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="92"/>
-      <c r="X4" s="92"/>
-      <c r="Y4" s="92"/>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="92"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="92"/>
-      <c r="AE4" s="92"/>
-      <c r="AF4" s="92"/>
-      <c r="AG4" s="92"/>
-      <c r="AH4" s="92"/>
-      <c r="AI4" s="92"/>
-      <c r="AJ4" s="92"/>
-      <c r="AK4" s="92"/>
-      <c r="AL4" s="92"/>
-      <c r="AM4" s="92"/>
-      <c r="AN4" s="93"/>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A5" s="111" t="s">
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="25"/>
+      <c r="AH4" s="25"/>
+      <c r="AI4" s="25"/>
+      <c r="AJ4" s="25"/>
+      <c r="AK4" s="25"/>
+      <c r="AL4" s="25"/>
+      <c r="AM4" s="25"/>
+      <c r="AN4" s="35"/>
+    </row>
+    <row r="5" spans="1:40">
+      <c r="A5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="112"/>
-      <c r="S5" s="113"/>
-      <c r="T5" s="94" t="s">
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="U5" s="95"/>
-      <c r="V5" s="95"/>
-      <c r="W5" s="95"/>
-      <c r="X5" s="95"/>
-      <c r="Y5" s="95"/>
-      <c r="Z5" s="95"/>
-      <c r="AA5" s="95"/>
-      <c r="AB5" s="95"/>
-      <c r="AC5" s="95"/>
-      <c r="AD5" s="95"/>
-      <c r="AE5" s="95"/>
-      <c r="AF5" s="95"/>
-      <c r="AG5" s="95"/>
-      <c r="AH5" s="95"/>
-      <c r="AI5" s="95"/>
-      <c r="AJ5" s="95"/>
-      <c r="AK5" s="95"/>
-      <c r="AL5" s="95"/>
-      <c r="AM5" s="95"/>
-      <c r="AN5" s="96"/>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A6" s="94" t="s">
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31"/>
+      <c r="AA5" s="31"/>
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="31"/>
+      <c r="AE5" s="31"/>
+      <c r="AF5" s="31"/>
+      <c r="AG5" s="31"/>
+      <c r="AH5" s="31"/>
+      <c r="AI5" s="31"/>
+      <c r="AJ5" s="31"/>
+      <c r="AK5" s="31"/>
+      <c r="AL5" s="31"/>
+      <c r="AM5" s="31"/>
+      <c r="AN5" s="36"/>
+    </row>
+    <row r="6" spans="1:40">
+      <c r="A6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
-      <c r="N6" s="95"/>
-      <c r="O6" s="95"/>
-      <c r="P6" s="95"/>
-      <c r="Q6" s="95"/>
-      <c r="R6" s="95"/>
-      <c r="S6" s="114"/>
-      <c r="T6" s="97"/>
-      <c r="U6" s="98"/>
-      <c r="V6" s="98"/>
-      <c r="W6" s="98"/>
-      <c r="X6" s="98"/>
-      <c r="Y6" s="98"/>
-      <c r="Z6" s="98"/>
-      <c r="AA6" s="98"/>
-      <c r="AB6" s="98"/>
-      <c r="AC6" s="98"/>
-      <c r="AD6" s="98"/>
-      <c r="AE6" s="98"/>
-      <c r="AF6" s="98"/>
-      <c r="AG6" s="98"/>
-      <c r="AH6" s="98"/>
-      <c r="AI6" s="98"/>
-      <c r="AJ6" s="98"/>
-      <c r="AK6" s="98"/>
-      <c r="AL6" s="98"/>
-      <c r="AM6" s="98"/>
-      <c r="AN6" s="99"/>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A7" s="100" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="38"/>
+      <c r="AE6" s="38"/>
+      <c r="AF6" s="38"/>
+      <c r="AG6" s="38"/>
+      <c r="AH6" s="38"/>
+      <c r="AI6" s="38"/>
+      <c r="AJ6" s="38"/>
+      <c r="AK6" s="38"/>
+      <c r="AL6" s="38"/>
+      <c r="AM6" s="38"/>
+      <c r="AN6" s="39"/>
+    </row>
+    <row r="7" spans="1:40">
+      <c r="A7" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="101"/>
-      <c r="O7" s="101"/>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="102"/>
-      <c r="T7" s="97"/>
-      <c r="U7" s="98"/>
-      <c r="V7" s="98"/>
-      <c r="W7" s="98"/>
-      <c r="X7" s="98"/>
-      <c r="Y7" s="98"/>
-      <c r="Z7" s="98"/>
-      <c r="AA7" s="98"/>
-      <c r="AB7" s="98"/>
-      <c r="AC7" s="98"/>
-      <c r="AD7" s="98"/>
-      <c r="AE7" s="98"/>
-      <c r="AF7" s="98"/>
-      <c r="AG7" s="98"/>
-      <c r="AH7" s="98"/>
-      <c r="AI7" s="98"/>
-      <c r="AJ7" s="98"/>
-      <c r="AK7" s="98"/>
-      <c r="AL7" s="98"/>
-      <c r="AM7" s="98"/>
-      <c r="AN7" s="99"/>
-    </row>
-    <row r="8" spans="1:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="87"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="89"/>
-      <c r="R8" s="89"/>
-      <c r="S8" s="89"/>
-      <c r="T8" s="89"/>
-      <c r="U8" s="89"/>
-      <c r="V8" s="89"/>
-      <c r="W8" s="89"/>
-      <c r="X8" s="89"/>
-      <c r="Y8" s="89"/>
-      <c r="Z8" s="89"/>
-      <c r="AA8" s="89"/>
-      <c r="AB8" s="89"/>
-      <c r="AC8" s="89"/>
-      <c r="AD8" s="89"/>
-      <c r="AE8" s="89"/>
-      <c r="AF8" s="89"/>
-      <c r="AG8" s="89"/>
-      <c r="AH8" s="89"/>
-      <c r="AI8" s="89"/>
-      <c r="AJ8" s="89"/>
-      <c r="AK8" s="89"/>
-      <c r="AL8" s="89"/>
-      <c r="AM8" s="89"/>
-      <c r="AN8" s="90"/>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A9" s="53" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="38"/>
+      <c r="AE7" s="38"/>
+      <c r="AF7" s="38"/>
+      <c r="AG7" s="38"/>
+      <c r="AH7" s="38"/>
+      <c r="AI7" s="38"/>
+      <c r="AJ7" s="38"/>
+      <c r="AK7" s="38"/>
+      <c r="AL7" s="38"/>
+      <c r="AM7" s="38"/>
+      <c r="AN7" s="39"/>
+    </row>
+    <row r="8" spans="1:40" ht="19.5" thickBot="1">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="33"/>
+      <c r="AD8" s="33"/>
+      <c r="AE8" s="33"/>
+      <c r="AF8" s="33"/>
+      <c r="AG8" s="33"/>
+      <c r="AH8" s="33"/>
+      <c r="AI8" s="33"/>
+      <c r="AJ8" s="33"/>
+      <c r="AK8" s="33"/>
+      <c r="AL8" s="33"/>
+      <c r="AM8" s="33"/>
+      <c r="AN8" s="34"/>
+    </row>
+    <row r="9" spans="1:40">
+      <c r="A9" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="74" t="s">
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="75"/>
-      <c r="R9" s="75"/>
-      <c r="S9" s="75"/>
-      <c r="T9" s="75"/>
-      <c r="U9" s="75"/>
-      <c r="V9" s="75"/>
-      <c r="W9" s="75"/>
-      <c r="X9" s="75"/>
-      <c r="Y9" s="75"/>
-      <c r="Z9" s="75"/>
-      <c r="AA9" s="75"/>
-      <c r="AB9" s="75"/>
-      <c r="AC9" s="75"/>
-      <c r="AD9" s="75"/>
-      <c r="AE9" s="75"/>
-      <c r="AF9" s="75"/>
-      <c r="AG9" s="75"/>
-      <c r="AH9" s="75"/>
-      <c r="AI9" s="75"/>
-      <c r="AJ9" s="75"/>
-      <c r="AK9" s="75"/>
-      <c r="AL9" s="75"/>
-      <c r="AM9" s="75"/>
-      <c r="AN9" s="76"/>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A10" s="56"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="78"/>
-      <c r="S10" s="78"/>
-      <c r="T10" s="78"/>
-      <c r="U10" s="78"/>
-      <c r="V10" s="78"/>
-      <c r="W10" s="78"/>
-      <c r="X10" s="78"/>
-      <c r="Y10" s="78"/>
-      <c r="Z10" s="78"/>
-      <c r="AA10" s="78"/>
-      <c r="AB10" s="78"/>
-      <c r="AC10" s="78"/>
-      <c r="AD10" s="78"/>
-      <c r="AE10" s="78"/>
-      <c r="AF10" s="78"/>
-      <c r="AG10" s="78"/>
-      <c r="AH10" s="78"/>
-      <c r="AI10" s="78"/>
-      <c r="AJ10" s="78"/>
-      <c r="AK10" s="78"/>
-      <c r="AL10" s="78"/>
-      <c r="AM10" s="78"/>
-      <c r="AN10" s="79"/>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A11" s="56"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="78"/>
-      <c r="P11" s="78"/>
-      <c r="Q11" s="78"/>
-      <c r="R11" s="78"/>
-      <c r="S11" s="78"/>
-      <c r="T11" s="78"/>
-      <c r="U11" s="78"/>
-      <c r="V11" s="78"/>
-      <c r="W11" s="78"/>
-      <c r="X11" s="78"/>
-      <c r="Y11" s="78"/>
-      <c r="Z11" s="78"/>
-      <c r="AA11" s="78"/>
-      <c r="AB11" s="78"/>
-      <c r="AC11" s="78"/>
-      <c r="AD11" s="78"/>
-      <c r="AE11" s="78"/>
-      <c r="AF11" s="78"/>
-      <c r="AG11" s="78"/>
-      <c r="AH11" s="78"/>
-      <c r="AI11" s="78"/>
-      <c r="AJ11" s="78"/>
-      <c r="AK11" s="78"/>
-      <c r="AL11" s="78"/>
-      <c r="AM11" s="78"/>
-      <c r="AN11" s="79"/>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A12" s="56"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="78"/>
-      <c r="L12" s="78"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="78"/>
-      <c r="O12" s="78"/>
-      <c r="P12" s="78"/>
-      <c r="Q12" s="78"/>
-      <c r="R12" s="78"/>
-      <c r="S12" s="78"/>
-      <c r="T12" s="78"/>
-      <c r="U12" s="78"/>
-      <c r="V12" s="78"/>
-      <c r="W12" s="78"/>
-      <c r="X12" s="78"/>
-      <c r="Y12" s="78"/>
-      <c r="Z12" s="78"/>
-      <c r="AA12" s="78"/>
-      <c r="AB12" s="78"/>
-      <c r="AC12" s="78"/>
-      <c r="AD12" s="78"/>
-      <c r="AE12" s="78"/>
-      <c r="AF12" s="78"/>
-      <c r="AG12" s="78"/>
-      <c r="AH12" s="78"/>
-      <c r="AI12" s="78"/>
-      <c r="AJ12" s="78"/>
-      <c r="AK12" s="78"/>
-      <c r="AL12" s="78"/>
-      <c r="AM12" s="78"/>
-      <c r="AN12" s="79"/>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A13" s="56"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="78"/>
-      <c r="N13" s="78"/>
-      <c r="O13" s="78"/>
-      <c r="P13" s="78"/>
-      <c r="Q13" s="78"/>
-      <c r="R13" s="78"/>
-      <c r="S13" s="78"/>
-      <c r="T13" s="78"/>
-      <c r="U13" s="78"/>
-      <c r="V13" s="78"/>
-      <c r="W13" s="78"/>
-      <c r="X13" s="78"/>
-      <c r="Y13" s="78"/>
-      <c r="Z13" s="78"/>
-      <c r="AA13" s="78"/>
-      <c r="AB13" s="78"/>
-      <c r="AC13" s="78"/>
-      <c r="AD13" s="78"/>
-      <c r="AE13" s="78"/>
-      <c r="AF13" s="78"/>
-      <c r="AG13" s="78"/>
-      <c r="AH13" s="78"/>
-      <c r="AI13" s="78"/>
-      <c r="AJ13" s="78"/>
-      <c r="AK13" s="78"/>
-      <c r="AL13" s="78"/>
-      <c r="AM13" s="78"/>
-      <c r="AN13" s="79"/>
-    </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A14" s="56"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="78"/>
-      <c r="O14" s="78"/>
-      <c r="P14" s="78"/>
-      <c r="Q14" s="78"/>
-      <c r="R14" s="78"/>
-      <c r="S14" s="78"/>
-      <c r="T14" s="78"/>
-      <c r="U14" s="78"/>
-      <c r="V14" s="78"/>
-      <c r="W14" s="78"/>
-      <c r="X14" s="78"/>
-      <c r="Y14" s="78"/>
-      <c r="Z14" s="78"/>
-      <c r="AA14" s="78"/>
-      <c r="AB14" s="78"/>
-      <c r="AC14" s="78"/>
-      <c r="AD14" s="78"/>
-      <c r="AE14" s="78"/>
-      <c r="AF14" s="78"/>
-      <c r="AG14" s="78"/>
-      <c r="AH14" s="78"/>
-      <c r="AI14" s="78"/>
-      <c r="AJ14" s="78"/>
-      <c r="AK14" s="78"/>
-      <c r="AL14" s="78"/>
-      <c r="AM14" s="78"/>
-      <c r="AN14" s="79"/>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A15" s="56"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="81"/>
-      <c r="O15" s="81"/>
-      <c r="P15" s="81"/>
-      <c r="Q15" s="81"/>
-      <c r="R15" s="81"/>
-      <c r="S15" s="81"/>
-      <c r="T15" s="81"/>
-      <c r="U15" s="81"/>
-      <c r="V15" s="81"/>
-      <c r="W15" s="81"/>
-      <c r="X15" s="81"/>
-      <c r="Y15" s="81"/>
-      <c r="Z15" s="81"/>
-      <c r="AA15" s="81"/>
-      <c r="AB15" s="81"/>
-      <c r="AC15" s="81"/>
-      <c r="AD15" s="81"/>
-      <c r="AE15" s="81"/>
-      <c r="AF15" s="81"/>
-      <c r="AG15" s="81"/>
-      <c r="AH15" s="81"/>
-      <c r="AI15" s="81"/>
-      <c r="AJ15" s="81"/>
-      <c r="AK15" s="81"/>
-      <c r="AL15" s="81"/>
-      <c r="AM15" s="81"/>
-      <c r="AN15" s="82"/>
-    </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A16" s="56"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="58"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="65"/>
+      <c r="Y9" s="65"/>
+      <c r="Z9" s="65"/>
+      <c r="AA9" s="65"/>
+      <c r="AB9" s="65"/>
+      <c r="AC9" s="65"/>
+      <c r="AD9" s="65"/>
+      <c r="AE9" s="65"/>
+      <c r="AF9" s="65"/>
+      <c r="AG9" s="65"/>
+      <c r="AH9" s="65"/>
+      <c r="AI9" s="65"/>
+      <c r="AJ9" s="65"/>
+      <c r="AK9" s="65"/>
+      <c r="AL9" s="65"/>
+      <c r="AM9" s="65"/>
+      <c r="AN9" s="66"/>
+    </row>
+    <row r="10" spans="1:40">
+      <c r="A10" s="46"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="68"/>
+      <c r="S10" s="68"/>
+      <c r="T10" s="68"/>
+      <c r="U10" s="68"/>
+      <c r="V10" s="68"/>
+      <c r="W10" s="68"/>
+      <c r="X10" s="68"/>
+      <c r="Y10" s="68"/>
+      <c r="Z10" s="68"/>
+      <c r="AA10" s="68"/>
+      <c r="AB10" s="68"/>
+      <c r="AC10" s="68"/>
+      <c r="AD10" s="68"/>
+      <c r="AE10" s="68"/>
+      <c r="AF10" s="68"/>
+      <c r="AG10" s="68"/>
+      <c r="AH10" s="68"/>
+      <c r="AI10" s="68"/>
+      <c r="AJ10" s="68"/>
+      <c r="AK10" s="68"/>
+      <c r="AL10" s="68"/>
+      <c r="AM10" s="68"/>
+      <c r="AN10" s="69"/>
+    </row>
+    <row r="11" spans="1:40">
+      <c r="A11" s="46"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="68"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="68"/>
+      <c r="V11" s="68"/>
+      <c r="W11" s="68"/>
+      <c r="X11" s="68"/>
+      <c r="Y11" s="68"/>
+      <c r="Z11" s="68"/>
+      <c r="AA11" s="68"/>
+      <c r="AB11" s="68"/>
+      <c r="AC11" s="68"/>
+      <c r="AD11" s="68"/>
+      <c r="AE11" s="68"/>
+      <c r="AF11" s="68"/>
+      <c r="AG11" s="68"/>
+      <c r="AH11" s="68"/>
+      <c r="AI11" s="68"/>
+      <c r="AJ11" s="68"/>
+      <c r="AK11" s="68"/>
+      <c r="AL11" s="68"/>
+      <c r="AM11" s="68"/>
+      <c r="AN11" s="69"/>
+    </row>
+    <row r="12" spans="1:40">
+      <c r="A12" s="46"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="68"/>
+      <c r="AC12" s="68"/>
+      <c r="AD12" s="68"/>
+      <c r="AE12" s="68"/>
+      <c r="AF12" s="68"/>
+      <c r="AG12" s="68"/>
+      <c r="AH12" s="68"/>
+      <c r="AI12" s="68"/>
+      <c r="AJ12" s="68"/>
+      <c r="AK12" s="68"/>
+      <c r="AL12" s="68"/>
+      <c r="AM12" s="68"/>
+      <c r="AN12" s="69"/>
+    </row>
+    <row r="13" spans="1:40">
+      <c r="A13" s="46"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="68"/>
+      <c r="X13" s="68"/>
+      <c r="Y13" s="68"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="68"/>
+      <c r="AC13" s="68"/>
+      <c r="AD13" s="68"/>
+      <c r="AE13" s="68"/>
+      <c r="AF13" s="68"/>
+      <c r="AG13" s="68"/>
+      <c r="AH13" s="68"/>
+      <c r="AI13" s="68"/>
+      <c r="AJ13" s="68"/>
+      <c r="AK13" s="68"/>
+      <c r="AL13" s="68"/>
+      <c r="AM13" s="68"/>
+      <c r="AN13" s="69"/>
+    </row>
+    <row r="14" spans="1:40">
+      <c r="A14" s="46"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="68"/>
+      <c r="V14" s="68"/>
+      <c r="W14" s="68"/>
+      <c r="X14" s="68"/>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="68"/>
+      <c r="AB14" s="68"/>
+      <c r="AC14" s="68"/>
+      <c r="AD14" s="68"/>
+      <c r="AE14" s="68"/>
+      <c r="AF14" s="68"/>
+      <c r="AG14" s="68"/>
+      <c r="AH14" s="68"/>
+      <c r="AI14" s="68"/>
+      <c r="AJ14" s="68"/>
+      <c r="AK14" s="68"/>
+      <c r="AL14" s="68"/>
+      <c r="AM14" s="68"/>
+      <c r="AN14" s="69"/>
+    </row>
+    <row r="15" spans="1:40">
+      <c r="A15" s="46"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="71"/>
+      <c r="S15" s="71"/>
+      <c r="T15" s="71"/>
+      <c r="U15" s="71"/>
+      <c r="V15" s="71"/>
+      <c r="W15" s="71"/>
+      <c r="X15" s="71"/>
+      <c r="Y15" s="71"/>
+      <c r="Z15" s="71"/>
+      <c r="AA15" s="71"/>
+      <c r="AB15" s="71"/>
+      <c r="AC15" s="71"/>
+      <c r="AD15" s="71"/>
+      <c r="AE15" s="71"/>
+      <c r="AF15" s="71"/>
+      <c r="AG15" s="71"/>
+      <c r="AH15" s="71"/>
+      <c r="AI15" s="71"/>
+      <c r="AJ15" s="71"/>
+      <c r="AK15" s="71"/>
+      <c r="AL15" s="71"/>
+      <c r="AM15" s="71"/>
+      <c r="AN15" s="72"/>
+    </row>
+    <row r="16" spans="1:40">
+      <c r="A16" s="46"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
       <c r="E16" s="2"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -2434,11 +2361,11 @@
       <c r="AM16" s="3"/>
       <c r="AN16" s="4"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A17" s="56"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="58"/>
+    <row r="17" spans="1:40">
+      <c r="A17" s="46"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="48"/>
       <c r="E17" s="2"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -2476,11 +2403,11 @@
       <c r="AM17" s="3"/>
       <c r="AN17" s="4"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A18" s="56"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
+    <row r="18" spans="1:40">
+      <c r="A18" s="46"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
       <c r="E18" s="2"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -2518,11 +2445,11 @@
       <c r="AM18" s="3"/>
       <c r="AN18" s="4"/>
     </row>
-    <row r="19" spans="1:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="59"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="61"/>
+    <row r="19" spans="1:40" ht="19.5" thickBot="1">
+      <c r="A19" s="49"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="51"/>
       <c r="E19" s="5"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -2560,700 +2487,700 @@
       <c r="AM19" s="6"/>
       <c r="AN19" s="7"/>
     </row>
-    <row r="20" spans="1:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="62"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="63"/>
-      <c r="O20" s="63"/>
-      <c r="P20" s="63"/>
-      <c r="Q20" s="63"/>
-      <c r="R20" s="63"/>
-      <c r="S20" s="63"/>
-      <c r="T20" s="63"/>
-      <c r="U20" s="63"/>
-      <c r="V20" s="63"/>
-      <c r="W20" s="63"/>
-      <c r="X20" s="63"/>
-      <c r="Y20" s="63"/>
-      <c r="Z20" s="63"/>
-      <c r="AA20" s="63"/>
-      <c r="AB20" s="63"/>
-      <c r="AC20" s="63"/>
-      <c r="AD20" s="63"/>
-      <c r="AE20" s="63"/>
-      <c r="AF20" s="63"/>
-      <c r="AG20" s="63"/>
-      <c r="AH20" s="63"/>
-      <c r="AI20" s="63"/>
-      <c r="AJ20" s="63"/>
-      <c r="AK20" s="63"/>
-      <c r="AL20" s="63"/>
-      <c r="AM20" s="63"/>
-      <c r="AN20" s="64"/>
-    </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A21" s="65" t="s">
+    <row r="20" spans="1:40" ht="19.5" thickBot="1">
+      <c r="A20" s="52"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="53"/>
+      <c r="W20" s="53"/>
+      <c r="X20" s="53"/>
+      <c r="Y20" s="53"/>
+      <c r="Z20" s="53"/>
+      <c r="AA20" s="53"/>
+      <c r="AB20" s="53"/>
+      <c r="AC20" s="53"/>
+      <c r="AD20" s="53"/>
+      <c r="AE20" s="53"/>
+      <c r="AF20" s="53"/>
+      <c r="AG20" s="53"/>
+      <c r="AH20" s="53"/>
+      <c r="AI20" s="53"/>
+      <c r="AJ20" s="53"/>
+      <c r="AK20" s="53"/>
+      <c r="AL20" s="53"/>
+      <c r="AM20" s="53"/>
+      <c r="AN20" s="54"/>
+    </row>
+    <row r="21" spans="1:40">
+      <c r="A21" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="83" t="s">
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="84"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="84"/>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="84"/>
-      <c r="R21" s="84"/>
-      <c r="S21" s="84"/>
-      <c r="T21" s="84"/>
-      <c r="U21" s="84"/>
-      <c r="V21" s="84"/>
-      <c r="W21" s="84"/>
-      <c r="X21" s="84"/>
-      <c r="Y21" s="84"/>
-      <c r="Z21" s="84"/>
-      <c r="AA21" s="84"/>
-      <c r="AB21" s="84"/>
-      <c r="AC21" s="84"/>
-      <c r="AD21" s="84"/>
-      <c r="AE21" s="84"/>
-      <c r="AF21" s="84"/>
-      <c r="AG21" s="84"/>
-      <c r="AH21" s="84"/>
-      <c r="AI21" s="84"/>
-      <c r="AJ21" s="84"/>
-      <c r="AK21" s="84"/>
-      <c r="AL21" s="84"/>
-      <c r="AM21" s="84"/>
-      <c r="AN21" s="85"/>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A22" s="68"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="19"/>
-      <c r="Y22" s="19"/>
-      <c r="Z22" s="19"/>
-      <c r="AA22" s="19"/>
-      <c r="AB22" s="19"/>
-      <c r="AC22" s="19"/>
-      <c r="AD22" s="19"/>
-      <c r="AE22" s="19"/>
-      <c r="AF22" s="19"/>
-      <c r="AG22" s="19"/>
-      <c r="AH22" s="19"/>
-      <c r="AI22" s="19"/>
-      <c r="AJ22" s="19"/>
-      <c r="AK22" s="19"/>
-      <c r="AL22" s="19"/>
-      <c r="AM22" s="19"/>
-      <c r="AN22" s="86"/>
-    </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A23" s="68"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
-      <c r="W23" s="19"/>
-      <c r="X23" s="19"/>
-      <c r="Y23" s="19"/>
-      <c r="Z23" s="19"/>
-      <c r="AA23" s="19"/>
-      <c r="AB23" s="19"/>
-      <c r="AC23" s="19"/>
-      <c r="AD23" s="19"/>
-      <c r="AE23" s="19"/>
-      <c r="AF23" s="19"/>
-      <c r="AG23" s="19"/>
-      <c r="AH23" s="19"/>
-      <c r="AI23" s="19"/>
-      <c r="AJ23" s="19"/>
-      <c r="AK23" s="19"/>
-      <c r="AL23" s="19"/>
-      <c r="AM23" s="19"/>
-      <c r="AN23" s="86"/>
-    </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A24" s="68"/>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-      <c r="W24" s="19"/>
-      <c r="X24" s="19"/>
-      <c r="Y24" s="19"/>
-      <c r="Z24" s="19"/>
-      <c r="AA24" s="19"/>
-      <c r="AB24" s="19"/>
-      <c r="AC24" s="19"/>
-      <c r="AD24" s="19"/>
-      <c r="AE24" s="19"/>
-      <c r="AF24" s="19"/>
-      <c r="AG24" s="19"/>
-      <c r="AH24" s="19"/>
-      <c r="AI24" s="19"/>
-      <c r="AJ24" s="19"/>
-      <c r="AK24" s="19"/>
-      <c r="AL24" s="19"/>
-      <c r="AM24" s="19"/>
-      <c r="AN24" s="86"/>
-    </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A25" s="68"/>
-      <c r="B25" s="69"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="19"/>
-      <c r="Z25" s="19"/>
-      <c r="AA25" s="19"/>
-      <c r="AB25" s="19"/>
-      <c r="AC25" s="19"/>
-      <c r="AD25" s="19"/>
-      <c r="AE25" s="19"/>
-      <c r="AF25" s="19"/>
-      <c r="AG25" s="19"/>
-      <c r="AH25" s="19"/>
-      <c r="AI25" s="19"/>
-      <c r="AJ25" s="19"/>
-      <c r="AK25" s="19"/>
-      <c r="AL25" s="19"/>
-      <c r="AM25" s="19"/>
-      <c r="AN25" s="86"/>
-    </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A26" s="68"/>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
-      <c r="W26" s="19"/>
-      <c r="X26" s="19"/>
-      <c r="Y26" s="19"/>
-      <c r="Z26" s="19"/>
-      <c r="AA26" s="19"/>
-      <c r="AB26" s="19"/>
-      <c r="AC26" s="19"/>
-      <c r="AD26" s="19"/>
-      <c r="AE26" s="19"/>
-      <c r="AF26" s="19"/>
-      <c r="AG26" s="19"/>
-      <c r="AH26" s="19"/>
-      <c r="AI26" s="19"/>
-      <c r="AJ26" s="19"/>
-      <c r="AK26" s="19"/>
-      <c r="AL26" s="19"/>
-      <c r="AM26" s="19"/>
-      <c r="AN26" s="86"/>
-    </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A27" s="68"/>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="19"/>
-      <c r="X27" s="19"/>
-      <c r="Y27" s="19"/>
-      <c r="Z27" s="19"/>
-      <c r="AA27" s="19"/>
-      <c r="AB27" s="19"/>
-      <c r="AC27" s="19"/>
-      <c r="AD27" s="19"/>
-      <c r="AE27" s="19"/>
-      <c r="AF27" s="19"/>
-      <c r="AG27" s="19"/>
-      <c r="AH27" s="19"/>
-      <c r="AI27" s="19"/>
-      <c r="AJ27" s="19"/>
-      <c r="AK27" s="19"/>
-      <c r="AL27" s="19"/>
-      <c r="AM27" s="19"/>
-      <c r="AN27" s="86"/>
-    </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A28" s="68"/>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
-      <c r="X28" s="19"/>
-      <c r="Y28" s="19"/>
-      <c r="Z28" s="19"/>
-      <c r="AA28" s="19"/>
-      <c r="AB28" s="19"/>
-      <c r="AC28" s="19"/>
-      <c r="AD28" s="19"/>
-      <c r="AE28" s="19"/>
-      <c r="AF28" s="19"/>
-      <c r="AG28" s="19"/>
-      <c r="AH28" s="19"/>
-      <c r="AI28" s="19"/>
-      <c r="AJ28" s="19"/>
-      <c r="AK28" s="19"/>
-      <c r="AL28" s="19"/>
-      <c r="AM28" s="19"/>
-      <c r="AN28" s="86"/>
-    </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A29" s="68"/>
-      <c r="B29" s="69"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
-      <c r="X29" s="19"/>
-      <c r="Y29" s="19"/>
-      <c r="Z29" s="19"/>
-      <c r="AA29" s="19"/>
-      <c r="AB29" s="19"/>
-      <c r="AC29" s="19"/>
-      <c r="AD29" s="19"/>
-      <c r="AE29" s="19"/>
-      <c r="AF29" s="19"/>
-      <c r="AG29" s="19"/>
-      <c r="AH29" s="19"/>
-      <c r="AI29" s="19"/>
-      <c r="AJ29" s="19"/>
-      <c r="AK29" s="19"/>
-      <c r="AL29" s="19"/>
-      <c r="AM29" s="19"/>
-      <c r="AN29" s="86"/>
-    </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A30" s="68"/>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="19"/>
-      <c r="W30" s="19"/>
-      <c r="X30" s="19"/>
-      <c r="Y30" s="19"/>
-      <c r="Z30" s="19"/>
-      <c r="AA30" s="19"/>
-      <c r="AB30" s="19"/>
-      <c r="AC30" s="19"/>
-      <c r="AD30" s="19"/>
-      <c r="AE30" s="19"/>
-      <c r="AF30" s="19"/>
-      <c r="AG30" s="19"/>
-      <c r="AH30" s="19"/>
-      <c r="AI30" s="19"/>
-      <c r="AJ30" s="19"/>
-      <c r="AK30" s="19"/>
-      <c r="AL30" s="19"/>
-      <c r="AM30" s="19"/>
-      <c r="AN30" s="86"/>
-    </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A31" s="68"/>
-      <c r="B31" s="69"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
-      <c r="V31" s="19"/>
-      <c r="W31" s="19"/>
-      <c r="X31" s="19"/>
-      <c r="Y31" s="19"/>
-      <c r="Z31" s="19"/>
-      <c r="AA31" s="19"/>
-      <c r="AB31" s="19"/>
-      <c r="AC31" s="19"/>
-      <c r="AD31" s="19"/>
-      <c r="AE31" s="19"/>
-      <c r="AF31" s="19"/>
-      <c r="AG31" s="19"/>
-      <c r="AH31" s="19"/>
-      <c r="AI31" s="19"/>
-      <c r="AJ31" s="19"/>
-      <c r="AK31" s="19"/>
-      <c r="AL31" s="19"/>
-      <c r="AM31" s="19"/>
-      <c r="AN31" s="86"/>
-    </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A32" s="68"/>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="19"/>
-      <c r="W32" s="19"/>
-      <c r="X32" s="19"/>
-      <c r="Y32" s="19"/>
-      <c r="Z32" s="19"/>
-      <c r="AA32" s="19"/>
-      <c r="AB32" s="19"/>
-      <c r="AC32" s="19"/>
-      <c r="AD32" s="19"/>
-      <c r="AE32" s="19"/>
-      <c r="AF32" s="19"/>
-      <c r="AG32" s="19"/>
-      <c r="AH32" s="19"/>
-      <c r="AI32" s="19"/>
-      <c r="AJ32" s="19"/>
-      <c r="AK32" s="19"/>
-      <c r="AL32" s="19"/>
-      <c r="AM32" s="19"/>
-      <c r="AN32" s="86"/>
-    </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A33" s="68"/>
-      <c r="B33" s="69"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
-      <c r="V33" s="19"/>
-      <c r="W33" s="19"/>
-      <c r="X33" s="19"/>
-      <c r="Y33" s="19"/>
-      <c r="Z33" s="19"/>
-      <c r="AA33" s="19"/>
-      <c r="AB33" s="19"/>
-      <c r="AC33" s="19"/>
-      <c r="AD33" s="19"/>
-      <c r="AE33" s="19"/>
-      <c r="AF33" s="19"/>
-      <c r="AG33" s="19"/>
-      <c r="AH33" s="19"/>
-      <c r="AI33" s="19"/>
-      <c r="AJ33" s="19"/>
-      <c r="AK33" s="19"/>
-      <c r="AL33" s="19"/>
-      <c r="AM33" s="19"/>
-      <c r="AN33" s="86"/>
-    </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A34" s="68"/>
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="19"/>
-      <c r="V34" s="19"/>
-      <c r="W34" s="19"/>
-      <c r="X34" s="19"/>
-      <c r="Y34" s="19"/>
-      <c r="Z34" s="19"/>
-      <c r="AA34" s="19"/>
-      <c r="AB34" s="19"/>
-      <c r="AC34" s="19"/>
-      <c r="AD34" s="19"/>
-      <c r="AE34" s="19"/>
-      <c r="AF34" s="19"/>
-      <c r="AG34" s="19"/>
-      <c r="AH34" s="19"/>
-      <c r="AI34" s="19"/>
-      <c r="AJ34" s="19"/>
-      <c r="AK34" s="19"/>
-      <c r="AL34" s="19"/>
-      <c r="AM34" s="19"/>
-      <c r="AN34" s="86"/>
-    </row>
-    <row r="35" spans="1:40" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A35" s="68"/>
-      <c r="B35" s="69"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="32" t="s">
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="74"/>
+      <c r="Q21" s="74"/>
+      <c r="R21" s="74"/>
+      <c r="S21" s="74"/>
+      <c r="T21" s="74"/>
+      <c r="U21" s="74"/>
+      <c r="V21" s="74"/>
+      <c r="W21" s="74"/>
+      <c r="X21" s="74"/>
+      <c r="Y21" s="74"/>
+      <c r="Z21" s="74"/>
+      <c r="AA21" s="74"/>
+      <c r="AB21" s="74"/>
+      <c r="AC21" s="74"/>
+      <c r="AD21" s="74"/>
+      <c r="AE21" s="74"/>
+      <c r="AF21" s="74"/>
+      <c r="AG21" s="74"/>
+      <c r="AH21" s="74"/>
+      <c r="AI21" s="74"/>
+      <c r="AJ21" s="74"/>
+      <c r="AK21" s="74"/>
+      <c r="AL21" s="74"/>
+      <c r="AM21" s="74"/>
+      <c r="AN21" s="75"/>
+    </row>
+    <row r="22" spans="1:40">
+      <c r="A22" s="58"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="77"/>
+      <c r="Q22" s="77"/>
+      <c r="R22" s="77"/>
+      <c r="S22" s="77"/>
+      <c r="T22" s="77"/>
+      <c r="U22" s="77"/>
+      <c r="V22" s="77"/>
+      <c r="W22" s="77"/>
+      <c r="X22" s="77"/>
+      <c r="Y22" s="77"/>
+      <c r="Z22" s="77"/>
+      <c r="AA22" s="77"/>
+      <c r="AB22" s="77"/>
+      <c r="AC22" s="77"/>
+      <c r="AD22" s="77"/>
+      <c r="AE22" s="77"/>
+      <c r="AF22" s="77"/>
+      <c r="AG22" s="77"/>
+      <c r="AH22" s="77"/>
+      <c r="AI22" s="77"/>
+      <c r="AJ22" s="77"/>
+      <c r="AK22" s="77"/>
+      <c r="AL22" s="77"/>
+      <c r="AM22" s="77"/>
+      <c r="AN22" s="78"/>
+    </row>
+    <row r="23" spans="1:40">
+      <c r="A23" s="58"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="77"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="77"/>
+      <c r="P23" s="77"/>
+      <c r="Q23" s="77"/>
+      <c r="R23" s="77"/>
+      <c r="S23" s="77"/>
+      <c r="T23" s="77"/>
+      <c r="U23" s="77"/>
+      <c r="V23" s="77"/>
+      <c r="W23" s="77"/>
+      <c r="X23" s="77"/>
+      <c r="Y23" s="77"/>
+      <c r="Z23" s="77"/>
+      <c r="AA23" s="77"/>
+      <c r="AB23" s="77"/>
+      <c r="AC23" s="77"/>
+      <c r="AD23" s="77"/>
+      <c r="AE23" s="77"/>
+      <c r="AF23" s="77"/>
+      <c r="AG23" s="77"/>
+      <c r="AH23" s="77"/>
+      <c r="AI23" s="77"/>
+      <c r="AJ23" s="77"/>
+      <c r="AK23" s="77"/>
+      <c r="AL23" s="77"/>
+      <c r="AM23" s="77"/>
+      <c r="AN23" s="78"/>
+    </row>
+    <row r="24" spans="1:40">
+      <c r="A24" s="58"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="77"/>
+      <c r="P24" s="77"/>
+      <c r="Q24" s="77"/>
+      <c r="R24" s="77"/>
+      <c r="S24" s="77"/>
+      <c r="T24" s="77"/>
+      <c r="U24" s="77"/>
+      <c r="V24" s="77"/>
+      <c r="W24" s="77"/>
+      <c r="X24" s="77"/>
+      <c r="Y24" s="77"/>
+      <c r="Z24" s="77"/>
+      <c r="AA24" s="77"/>
+      <c r="AB24" s="77"/>
+      <c r="AC24" s="77"/>
+      <c r="AD24" s="77"/>
+      <c r="AE24" s="77"/>
+      <c r="AF24" s="77"/>
+      <c r="AG24" s="77"/>
+      <c r="AH24" s="77"/>
+      <c r="AI24" s="77"/>
+      <c r="AJ24" s="77"/>
+      <c r="AK24" s="77"/>
+      <c r="AL24" s="77"/>
+      <c r="AM24" s="77"/>
+      <c r="AN24" s="78"/>
+    </row>
+    <row r="25" spans="1:40">
+      <c r="A25" s="58"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="77"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="77"/>
+      <c r="P25" s="77"/>
+      <c r="Q25" s="77"/>
+      <c r="R25" s="77"/>
+      <c r="S25" s="77"/>
+      <c r="T25" s="77"/>
+      <c r="U25" s="77"/>
+      <c r="V25" s="77"/>
+      <c r="W25" s="77"/>
+      <c r="X25" s="77"/>
+      <c r="Y25" s="77"/>
+      <c r="Z25" s="77"/>
+      <c r="AA25" s="77"/>
+      <c r="AB25" s="77"/>
+      <c r="AC25" s="77"/>
+      <c r="AD25" s="77"/>
+      <c r="AE25" s="77"/>
+      <c r="AF25" s="77"/>
+      <c r="AG25" s="77"/>
+      <c r="AH25" s="77"/>
+      <c r="AI25" s="77"/>
+      <c r="AJ25" s="77"/>
+      <c r="AK25" s="77"/>
+      <c r="AL25" s="77"/>
+      <c r="AM25" s="77"/>
+      <c r="AN25" s="78"/>
+    </row>
+    <row r="26" spans="1:40">
+      <c r="A26" s="58"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="77"/>
+      <c r="O26" s="77"/>
+      <c r="P26" s="77"/>
+      <c r="Q26" s="77"/>
+      <c r="R26" s="77"/>
+      <c r="S26" s="77"/>
+      <c r="T26" s="77"/>
+      <c r="U26" s="77"/>
+      <c r="V26" s="77"/>
+      <c r="W26" s="77"/>
+      <c r="X26" s="77"/>
+      <c r="Y26" s="77"/>
+      <c r="Z26" s="77"/>
+      <c r="AA26" s="77"/>
+      <c r="AB26" s="77"/>
+      <c r="AC26" s="77"/>
+      <c r="AD26" s="77"/>
+      <c r="AE26" s="77"/>
+      <c r="AF26" s="77"/>
+      <c r="AG26" s="77"/>
+      <c r="AH26" s="77"/>
+      <c r="AI26" s="77"/>
+      <c r="AJ26" s="77"/>
+      <c r="AK26" s="77"/>
+      <c r="AL26" s="77"/>
+      <c r="AM26" s="77"/>
+      <c r="AN26" s="78"/>
+    </row>
+    <row r="27" spans="1:40">
+      <c r="A27" s="58"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="77"/>
+      <c r="O27" s="77"/>
+      <c r="P27" s="77"/>
+      <c r="Q27" s="77"/>
+      <c r="R27" s="77"/>
+      <c r="S27" s="77"/>
+      <c r="T27" s="77"/>
+      <c r="U27" s="77"/>
+      <c r="V27" s="77"/>
+      <c r="W27" s="77"/>
+      <c r="X27" s="77"/>
+      <c r="Y27" s="77"/>
+      <c r="Z27" s="77"/>
+      <c r="AA27" s="77"/>
+      <c r="AB27" s="77"/>
+      <c r="AC27" s="77"/>
+      <c r="AD27" s="77"/>
+      <c r="AE27" s="77"/>
+      <c r="AF27" s="77"/>
+      <c r="AG27" s="77"/>
+      <c r="AH27" s="77"/>
+      <c r="AI27" s="77"/>
+      <c r="AJ27" s="77"/>
+      <c r="AK27" s="77"/>
+      <c r="AL27" s="77"/>
+      <c r="AM27" s="77"/>
+      <c r="AN27" s="78"/>
+    </row>
+    <row r="28" spans="1:40">
+      <c r="A28" s="58"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="77"/>
+      <c r="P28" s="77"/>
+      <c r="Q28" s="77"/>
+      <c r="R28" s="77"/>
+      <c r="S28" s="77"/>
+      <c r="T28" s="77"/>
+      <c r="U28" s="77"/>
+      <c r="V28" s="77"/>
+      <c r="W28" s="77"/>
+      <c r="X28" s="77"/>
+      <c r="Y28" s="77"/>
+      <c r="Z28" s="77"/>
+      <c r="AA28" s="77"/>
+      <c r="AB28" s="77"/>
+      <c r="AC28" s="77"/>
+      <c r="AD28" s="77"/>
+      <c r="AE28" s="77"/>
+      <c r="AF28" s="77"/>
+      <c r="AG28" s="77"/>
+      <c r="AH28" s="77"/>
+      <c r="AI28" s="77"/>
+      <c r="AJ28" s="77"/>
+      <c r="AK28" s="77"/>
+      <c r="AL28" s="77"/>
+      <c r="AM28" s="77"/>
+      <c r="AN28" s="78"/>
+    </row>
+    <row r="29" spans="1:40">
+      <c r="A29" s="58"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="77"/>
+      <c r="N29" s="77"/>
+      <c r="O29" s="77"/>
+      <c r="P29" s="77"/>
+      <c r="Q29" s="77"/>
+      <c r="R29" s="77"/>
+      <c r="S29" s="77"/>
+      <c r="T29" s="77"/>
+      <c r="U29" s="77"/>
+      <c r="V29" s="77"/>
+      <c r="W29" s="77"/>
+      <c r="X29" s="77"/>
+      <c r="Y29" s="77"/>
+      <c r="Z29" s="77"/>
+      <c r="AA29" s="77"/>
+      <c r="AB29" s="77"/>
+      <c r="AC29" s="77"/>
+      <c r="AD29" s="77"/>
+      <c r="AE29" s="77"/>
+      <c r="AF29" s="77"/>
+      <c r="AG29" s="77"/>
+      <c r="AH29" s="77"/>
+      <c r="AI29" s="77"/>
+      <c r="AJ29" s="77"/>
+      <c r="AK29" s="77"/>
+      <c r="AL29" s="77"/>
+      <c r="AM29" s="77"/>
+      <c r="AN29" s="78"/>
+    </row>
+    <row r="30" spans="1:40">
+      <c r="A30" s="58"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="77"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="77"/>
+      <c r="P30" s="77"/>
+      <c r="Q30" s="77"/>
+      <c r="R30" s="77"/>
+      <c r="S30" s="77"/>
+      <c r="T30" s="77"/>
+      <c r="U30" s="77"/>
+      <c r="V30" s="77"/>
+      <c r="W30" s="77"/>
+      <c r="X30" s="77"/>
+      <c r="Y30" s="77"/>
+      <c r="Z30" s="77"/>
+      <c r="AA30" s="77"/>
+      <c r="AB30" s="77"/>
+      <c r="AC30" s="77"/>
+      <c r="AD30" s="77"/>
+      <c r="AE30" s="77"/>
+      <c r="AF30" s="77"/>
+      <c r="AG30" s="77"/>
+      <c r="AH30" s="77"/>
+      <c r="AI30" s="77"/>
+      <c r="AJ30" s="77"/>
+      <c r="AK30" s="77"/>
+      <c r="AL30" s="77"/>
+      <c r="AM30" s="77"/>
+      <c r="AN30" s="78"/>
+    </row>
+    <row r="31" spans="1:40">
+      <c r="A31" s="58"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="77"/>
+      <c r="N31" s="77"/>
+      <c r="O31" s="77"/>
+      <c r="P31" s="77"/>
+      <c r="Q31" s="77"/>
+      <c r="R31" s="77"/>
+      <c r="S31" s="77"/>
+      <c r="T31" s="77"/>
+      <c r="U31" s="77"/>
+      <c r="V31" s="77"/>
+      <c r="W31" s="77"/>
+      <c r="X31" s="77"/>
+      <c r="Y31" s="77"/>
+      <c r="Z31" s="77"/>
+      <c r="AA31" s="77"/>
+      <c r="AB31" s="77"/>
+      <c r="AC31" s="77"/>
+      <c r="AD31" s="77"/>
+      <c r="AE31" s="77"/>
+      <c r="AF31" s="77"/>
+      <c r="AG31" s="77"/>
+      <c r="AH31" s="77"/>
+      <c r="AI31" s="77"/>
+      <c r="AJ31" s="77"/>
+      <c r="AK31" s="77"/>
+      <c r="AL31" s="77"/>
+      <c r="AM31" s="77"/>
+      <c r="AN31" s="78"/>
+    </row>
+    <row r="32" spans="1:40">
+      <c r="A32" s="58"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="77"/>
+      <c r="N32" s="77"/>
+      <c r="O32" s="77"/>
+      <c r="P32" s="77"/>
+      <c r="Q32" s="77"/>
+      <c r="R32" s="77"/>
+      <c r="S32" s="77"/>
+      <c r="T32" s="77"/>
+      <c r="U32" s="77"/>
+      <c r="V32" s="77"/>
+      <c r="W32" s="77"/>
+      <c r="X32" s="77"/>
+      <c r="Y32" s="77"/>
+      <c r="Z32" s="77"/>
+      <c r="AA32" s="77"/>
+      <c r="AB32" s="77"/>
+      <c r="AC32" s="77"/>
+      <c r="AD32" s="77"/>
+      <c r="AE32" s="77"/>
+      <c r="AF32" s="77"/>
+      <c r="AG32" s="77"/>
+      <c r="AH32" s="77"/>
+      <c r="AI32" s="77"/>
+      <c r="AJ32" s="77"/>
+      <c r="AK32" s="77"/>
+      <c r="AL32" s="77"/>
+      <c r="AM32" s="77"/>
+      <c r="AN32" s="78"/>
+    </row>
+    <row r="33" spans="1:40">
+      <c r="A33" s="58"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="77"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="77"/>
+      <c r="N33" s="77"/>
+      <c r="O33" s="77"/>
+      <c r="P33" s="77"/>
+      <c r="Q33" s="77"/>
+      <c r="R33" s="77"/>
+      <c r="S33" s="77"/>
+      <c r="T33" s="77"/>
+      <c r="U33" s="77"/>
+      <c r="V33" s="77"/>
+      <c r="W33" s="77"/>
+      <c r="X33" s="77"/>
+      <c r="Y33" s="77"/>
+      <c r="Z33" s="77"/>
+      <c r="AA33" s="77"/>
+      <c r="AB33" s="77"/>
+      <c r="AC33" s="77"/>
+      <c r="AD33" s="77"/>
+      <c r="AE33" s="77"/>
+      <c r="AF33" s="77"/>
+      <c r="AG33" s="77"/>
+      <c r="AH33" s="77"/>
+      <c r="AI33" s="77"/>
+      <c r="AJ33" s="77"/>
+      <c r="AK33" s="77"/>
+      <c r="AL33" s="77"/>
+      <c r="AM33" s="77"/>
+      <c r="AN33" s="78"/>
+    </row>
+    <row r="34" spans="1:40">
+      <c r="A34" s="58"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="77"/>
+      <c r="J34" s="77"/>
+      <c r="K34" s="77"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="77"/>
+      <c r="N34" s="77"/>
+      <c r="O34" s="77"/>
+      <c r="P34" s="77"/>
+      <c r="Q34" s="77"/>
+      <c r="R34" s="77"/>
+      <c r="S34" s="77"/>
+      <c r="T34" s="77"/>
+      <c r="U34" s="77"/>
+      <c r="V34" s="77"/>
+      <c r="W34" s="77"/>
+      <c r="X34" s="77"/>
+      <c r="Y34" s="77"/>
+      <c r="Z34" s="77"/>
+      <c r="AA34" s="77"/>
+      <c r="AB34" s="77"/>
+      <c r="AC34" s="77"/>
+      <c r="AD34" s="77"/>
+      <c r="AE34" s="77"/>
+      <c r="AF34" s="77"/>
+      <c r="AG34" s="77"/>
+      <c r="AH34" s="77"/>
+      <c r="AI34" s="77"/>
+      <c r="AJ34" s="77"/>
+      <c r="AK34" s="77"/>
+      <c r="AL34" s="77"/>
+      <c r="AM34" s="77"/>
+      <c r="AN34" s="78"/>
+    </row>
+    <row r="35" spans="1:40" ht="20.25">
+      <c r="A35" s="58"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="33"/>
-      <c r="S35" s="33"/>
-      <c r="T35" s="33"/>
-      <c r="U35" s="33"/>
-      <c r="V35" s="33"/>
-      <c r="W35" s="33"/>
-      <c r="X35" s="33"/>
-      <c r="Y35" s="33"/>
-      <c r="Z35" s="33"/>
-      <c r="AA35" s="33"/>
-      <c r="AB35" s="33"/>
-      <c r="AC35" s="33"/>
-      <c r="AD35" s="33"/>
-      <c r="AE35" s="33"/>
-      <c r="AF35" s="33"/>
-      <c r="AG35" s="33"/>
-      <c r="AH35" s="33"/>
-      <c r="AI35" s="33"/>
-      <c r="AJ35" s="33"/>
-      <c r="AK35" s="33"/>
-      <c r="AL35" s="33"/>
-      <c r="AM35" s="33"/>
-      <c r="AN35" s="34"/>
-    </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A36" s="68"/>
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="50" t="s">
+      <c r="F35" s="98"/>
+      <c r="G35" s="98"/>
+      <c r="H35" s="98"/>
+      <c r="I35" s="98"/>
+      <c r="J35" s="98"/>
+      <c r="K35" s="98"/>
+      <c r="L35" s="98"/>
+      <c r="M35" s="98"/>
+      <c r="N35" s="98"/>
+      <c r="O35" s="98"/>
+      <c r="P35" s="98"/>
+      <c r="Q35" s="98"/>
+      <c r="R35" s="98"/>
+      <c r="S35" s="98"/>
+      <c r="T35" s="98"/>
+      <c r="U35" s="98"/>
+      <c r="V35" s="98"/>
+      <c r="W35" s="98"/>
+      <c r="X35" s="98"/>
+      <c r="Y35" s="98"/>
+      <c r="Z35" s="98"/>
+      <c r="AA35" s="98"/>
+      <c r="AB35" s="98"/>
+      <c r="AC35" s="98"/>
+      <c r="AD35" s="98"/>
+      <c r="AE35" s="98"/>
+      <c r="AF35" s="98"/>
+      <c r="AG35" s="98"/>
+      <c r="AH35" s="98"/>
+      <c r="AI35" s="98"/>
+      <c r="AJ35" s="98"/>
+      <c r="AK35" s="98"/>
+      <c r="AL35" s="98"/>
+      <c r="AM35" s="98"/>
+      <c r="AN35" s="99"/>
+    </row>
+    <row r="36" spans="1:40">
+      <c r="A36" s="58"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="80"/>
+      <c r="I36" s="80"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="80"/>
+      <c r="M36" s="80"/>
       <c r="N36" s="13"/>
       <c r="O36" s="13"/>
       <c r="P36" s="13"/>
@@ -3282,20 +3209,20 @@
       <c r="AM36" s="3"/>
       <c r="AN36" s="4"/>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A37" s="68"/>
-      <c r="B37" s="69"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
+    <row r="37" spans="1:40">
+      <c r="A37" s="58"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="77"/>
+      <c r="I37" s="77"/>
+      <c r="J37" s="77"/>
+      <c r="K37" s="77"/>
+      <c r="L37" s="77"/>
+      <c r="M37" s="77"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
@@ -3324,20 +3251,20 @@
       <c r="AM37" s="3"/>
       <c r="AN37" s="4"/>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A38" s="68"/>
-      <c r="B38" s="69"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
+    <row r="38" spans="1:40">
+      <c r="A38" s="58"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="77"/>
+      <c r="J38" s="77"/>
+      <c r="K38" s="77"/>
+      <c r="L38" s="77"/>
+      <c r="M38" s="77"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
@@ -3366,20 +3293,20 @@
       <c r="AM38" s="3"/>
       <c r="AN38" s="4"/>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A39" s="68"/>
-      <c r="B39" s="69"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
+    <row r="39" spans="1:40">
+      <c r="A39" s="58"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="82"/>
+      <c r="I39" s="82"/>
+      <c r="J39" s="82"/>
+      <c r="K39" s="82"/>
+      <c r="L39" s="82"/>
+      <c r="M39" s="82"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
@@ -3408,11 +3335,11 @@
       <c r="AM39" s="3"/>
       <c r="AN39" s="4"/>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A40" s="68"/>
-      <c r="B40" s="69"/>
-      <c r="C40" s="69"/>
-      <c r="D40" s="70"/>
+    <row r="40" spans="1:40">
+      <c r="A40" s="58"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="60"/>
       <c r="E40" s="2"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -3450,11 +3377,11 @@
       <c r="AM40" s="3"/>
       <c r="AN40" s="4"/>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A41" s="68"/>
-      <c r="B41" s="69"/>
-      <c r="C41" s="69"/>
-      <c r="D41" s="70"/>
+    <row r="41" spans="1:40">
+      <c r="A41" s="58"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="60"/>
       <c r="E41" s="2"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -3492,11 +3419,11 @@
       <c r="AM41" s="3"/>
       <c r="AN41" s="4"/>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A42" s="68"/>
-      <c r="B42" s="69"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="70"/>
+    <row r="42" spans="1:40">
+      <c r="A42" s="58"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="60"/>
       <c r="E42" s="2"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -3534,11 +3461,11 @@
       <c r="AM42" s="3"/>
       <c r="AN42" s="4"/>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A43" s="68"/>
-      <c r="B43" s="69"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="70"/>
+    <row r="43" spans="1:40">
+      <c r="A43" s="58"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="60"/>
       <c r="E43" s="2"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -3576,11 +3503,11 @@
       <c r="AM43" s="3"/>
       <c r="AN43" s="4"/>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A44" s="68"/>
-      <c r="B44" s="69"/>
-      <c r="C44" s="69"/>
-      <c r="D44" s="70"/>
+    <row r="44" spans="1:40">
+      <c r="A44" s="58"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="60"/>
       <c r="E44" s="2"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -3618,11 +3545,11 @@
       <c r="AM44" s="3"/>
       <c r="AN44" s="9"/>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A45" s="68"/>
-      <c r="B45" s="69"/>
-      <c r="C45" s="69"/>
-      <c r="D45" s="70"/>
+    <row r="45" spans="1:40">
+      <c r="A45" s="58"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="60"/>
       <c r="E45" s="2"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -3660,11 +3587,11 @@
       <c r="AM45" s="3"/>
       <c r="AN45" s="4"/>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A46" s="68"/>
-      <c r="B46" s="69"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="70"/>
+    <row r="46" spans="1:40">
+      <c r="A46" s="58"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="60"/>
       <c r="E46" s="2"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -3702,11 +3629,11 @@
       <c r="AM46" s="3"/>
       <c r="AN46" s="4"/>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A47" s="68"/>
-      <c r="B47" s="69"/>
-      <c r="C47" s="69"/>
-      <c r="D47" s="70"/>
+    <row r="47" spans="1:40">
+      <c r="A47" s="58"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="60"/>
       <c r="E47" s="2"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -3744,11 +3671,11 @@
       <c r="AM47" s="3"/>
       <c r="AN47" s="4"/>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A48" s="68"/>
-      <c r="B48" s="69"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="70"/>
+    <row r="48" spans="1:40">
+      <c r="A48" s="58"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="60"/>
       <c r="E48" s="2"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -3786,11 +3713,11 @@
       <c r="AM48" s="3"/>
       <c r="AN48" s="4"/>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A49" s="68"/>
-      <c r="B49" s="69"/>
-      <c r="C49" s="69"/>
-      <c r="D49" s="70"/>
+    <row r="49" spans="1:40">
+      <c r="A49" s="58"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="60"/>
       <c r="E49" s="2"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -3828,11 +3755,11 @@
       <c r="AM49" s="3"/>
       <c r="AN49" s="4"/>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A50" s="68"/>
-      <c r="B50" s="69"/>
-      <c r="C50" s="69"/>
-      <c r="D50" s="70"/>
+    <row r="50" spans="1:40">
+      <c r="A50" s="58"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="60"/>
       <c r="E50" s="2"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -3870,11 +3797,11 @@
       <c r="AM50" s="3"/>
       <c r="AN50" s="4"/>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A51" s="68"/>
-      <c r="B51" s="69"/>
-      <c r="C51" s="69"/>
-      <c r="D51" s="70"/>
+    <row r="51" spans="1:40">
+      <c r="A51" s="58"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="60"/>
       <c r="E51" s="2"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -3912,11 +3839,11 @@
       <c r="AM51" s="3"/>
       <c r="AN51" s="4"/>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A52" s="68"/>
-      <c r="B52" s="69"/>
-      <c r="C52" s="69"/>
-      <c r="D52" s="70"/>
+    <row r="52" spans="1:40">
+      <c r="A52" s="58"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="60"/>
       <c r="E52" s="2"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
@@ -3954,11 +3881,11 @@
       <c r="AM52" s="3"/>
       <c r="AN52" s="4"/>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A53" s="68"/>
-      <c r="B53" s="69"/>
-      <c r="C53" s="69"/>
-      <c r="D53" s="70"/>
+    <row r="53" spans="1:40">
+      <c r="A53" s="58"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="60"/>
       <c r="E53" s="2"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -3996,11 +3923,11 @@
       <c r="AM53" s="3"/>
       <c r="AN53" s="4"/>
     </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A54" s="68"/>
-      <c r="B54" s="69"/>
-      <c r="C54" s="69"/>
-      <c r="D54" s="70"/>
+    <row r="54" spans="1:40">
+      <c r="A54" s="58"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="60"/>
       <c r="E54" s="2"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -4038,11 +3965,11 @@
       <c r="AM54" s="3"/>
       <c r="AN54" s="4"/>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A55" s="68"/>
-      <c r="B55" s="69"/>
-      <c r="C55" s="69"/>
-      <c r="D55" s="70"/>
+    <row r="55" spans="1:40">
+      <c r="A55" s="58"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="60"/>
       <c r="E55" s="2"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
@@ -4080,11 +4007,11 @@
       <c r="AM55" s="3"/>
       <c r="AN55" s="4"/>
     </row>
-    <row r="56" spans="1:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="68"/>
-      <c r="B56" s="69"/>
-      <c r="C56" s="69"/>
-      <c r="D56" s="70"/>
+    <row r="56" spans="1:40" ht="19.5" thickBot="1">
+      <c r="A56" s="58"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="60"/>
       <c r="E56" s="2"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -4122,45 +4049,45 @@
       <c r="AM56" s="3"/>
       <c r="AN56" s="7"/>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A57" s="68"/>
-      <c r="B57" s="69"/>
-      <c r="C57" s="69"/>
-      <c r="D57" s="70"/>
-      <c r="E57" s="50" t="s">
+    <row r="57" spans="1:40">
+      <c r="A57" s="58"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="16"/>
-      <c r="L57" s="16"/>
-      <c r="M57" s="17"/>
+      <c r="F57" s="80"/>
+      <c r="G57" s="80"/>
+      <c r="H57" s="80"/>
+      <c r="I57" s="80"/>
+      <c r="J57" s="80"/>
+      <c r="K57" s="80"/>
+      <c r="L57" s="80"/>
+      <c r="M57" s="83"/>
       <c r="N57" s="3"/>
-      <c r="O57" s="41"/>
-      <c r="P57" s="42"/>
-      <c r="Q57" s="43"/>
+      <c r="O57" s="106"/>
+      <c r="P57" s="107"/>
+      <c r="Q57" s="108"/>
       <c r="R57" s="3"/>
       <c r="S57" s="3"/>
       <c r="T57" s="3"/>
-      <c r="U57" s="15" t="s">
+      <c r="U57" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="V57" s="16"/>
-      <c r="W57" s="16"/>
-      <c r="X57" s="16"/>
-      <c r="Y57" s="16"/>
-      <c r="Z57" s="16"/>
-      <c r="AA57" s="16"/>
-      <c r="AB57" s="17"/>
+      <c r="V57" s="80"/>
+      <c r="W57" s="80"/>
+      <c r="X57" s="80"/>
+      <c r="Y57" s="80"/>
+      <c r="Z57" s="80"/>
+      <c r="AA57" s="80"/>
+      <c r="AB57" s="83"/>
       <c r="AC57" s="3"/>
-      <c r="AD57" s="41"/>
-      <c r="AE57" s="42"/>
-      <c r="AF57" s="42"/>
-      <c r="AG57" s="42"/>
-      <c r="AH57" s="43"/>
+      <c r="AD57" s="106"/>
+      <c r="AE57" s="107"/>
+      <c r="AF57" s="107"/>
+      <c r="AG57" s="107"/>
+      <c r="AH57" s="108"/>
       <c r="AI57" s="3"/>
       <c r="AJ57" s="3"/>
       <c r="AK57" s="3"/>
@@ -4168,41 +4095,41 @@
       <c r="AM57" s="3"/>
       <c r="AN57" s="8"/>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A58" s="68"/>
-      <c r="B58" s="69"/>
-      <c r="C58" s="69"/>
-      <c r="D58" s="70"/>
-      <c r="E58" s="51"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="20"/>
+    <row r="58" spans="1:40">
+      <c r="A58" s="58"/>
+      <c r="B58" s="59"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="77"/>
+      <c r="G58" s="77"/>
+      <c r="H58" s="77"/>
+      <c r="I58" s="77"/>
+      <c r="J58" s="77"/>
+      <c r="K58" s="77"/>
+      <c r="L58" s="77"/>
+      <c r="M58" s="84"/>
       <c r="N58" s="3"/>
-      <c r="O58" s="44"/>
-      <c r="P58" s="45"/>
-      <c r="Q58" s="46"/>
+      <c r="O58" s="109"/>
+      <c r="P58" s="110"/>
+      <c r="Q58" s="111"/>
       <c r="R58" s="3"/>
       <c r="S58" s="3"/>
       <c r="T58" s="3"/>
-      <c r="U58" s="18"/>
-      <c r="V58" s="19"/>
-      <c r="W58" s="19"/>
-      <c r="X58" s="19"/>
-      <c r="Y58" s="19"/>
-      <c r="Z58" s="19"/>
-      <c r="AA58" s="19"/>
-      <c r="AB58" s="20"/>
+      <c r="U58" s="87"/>
+      <c r="V58" s="77"/>
+      <c r="W58" s="77"/>
+      <c r="X58" s="77"/>
+      <c r="Y58" s="77"/>
+      <c r="Z58" s="77"/>
+      <c r="AA58" s="77"/>
+      <c r="AB58" s="84"/>
       <c r="AC58" s="3"/>
-      <c r="AD58" s="44"/>
-      <c r="AE58" s="45"/>
-      <c r="AF58" s="45"/>
-      <c r="AG58" s="45"/>
-      <c r="AH58" s="46"/>
+      <c r="AD58" s="109"/>
+      <c r="AE58" s="110"/>
+      <c r="AF58" s="110"/>
+      <c r="AG58" s="110"/>
+      <c r="AH58" s="111"/>
       <c r="AI58" s="3"/>
       <c r="AJ58" s="3"/>
       <c r="AK58" s="3"/>
@@ -4210,41 +4137,41 @@
       <c r="AM58" s="3"/>
       <c r="AN58" s="4"/>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A59" s="68"/>
-      <c r="B59" s="69"/>
-      <c r="C59" s="69"/>
-      <c r="D59" s="70"/>
-      <c r="E59" s="52"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="22"/>
-      <c r="L59" s="22"/>
-      <c r="M59" s="23"/>
+    <row r="59" spans="1:40">
+      <c r="A59" s="58"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="60"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="82"/>
+      <c r="G59" s="82"/>
+      <c r="H59" s="82"/>
+      <c r="I59" s="82"/>
+      <c r="J59" s="82"/>
+      <c r="K59" s="82"/>
+      <c r="L59" s="82"/>
+      <c r="M59" s="85"/>
       <c r="N59" s="3"/>
-      <c r="O59" s="47"/>
-      <c r="P59" s="48"/>
-      <c r="Q59" s="49"/>
+      <c r="O59" s="112"/>
+      <c r="P59" s="113"/>
+      <c r="Q59" s="114"/>
       <c r="R59" s="3"/>
       <c r="S59" s="3"/>
       <c r="T59" s="3"/>
-      <c r="U59" s="21"/>
-      <c r="V59" s="22"/>
-      <c r="W59" s="22"/>
-      <c r="X59" s="22"/>
-      <c r="Y59" s="22"/>
-      <c r="Z59" s="22"/>
-      <c r="AA59" s="22"/>
-      <c r="AB59" s="23"/>
+      <c r="U59" s="88"/>
+      <c r="V59" s="82"/>
+      <c r="W59" s="82"/>
+      <c r="X59" s="82"/>
+      <c r="Y59" s="82"/>
+      <c r="Z59" s="82"/>
+      <c r="AA59" s="82"/>
+      <c r="AB59" s="85"/>
       <c r="AC59" s="3"/>
-      <c r="AD59" s="47"/>
-      <c r="AE59" s="48"/>
-      <c r="AF59" s="48"/>
-      <c r="AG59" s="48"/>
-      <c r="AH59" s="49"/>
+      <c r="AD59" s="112"/>
+      <c r="AE59" s="113"/>
+      <c r="AF59" s="113"/>
+      <c r="AG59" s="113"/>
+      <c r="AH59" s="114"/>
       <c r="AI59" s="3"/>
       <c r="AJ59" s="3"/>
       <c r="AK59" s="3"/>
@@ -4252,11 +4179,11 @@
       <c r="AM59" s="3"/>
       <c r="AN59" s="4"/>
     </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A60" s="68"/>
-      <c r="B60" s="69"/>
-      <c r="C60" s="69"/>
-      <c r="D60" s="70"/>
+    <row r="60" spans="1:40">
+      <c r="A60" s="58"/>
+      <c r="B60" s="59"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="60"/>
       <c r="E60" s="2"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -4294,26 +4221,26 @@
       <c r="AM60" s="3"/>
       <c r="AN60" s="4"/>
     </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A61" s="68"/>
-      <c r="B61" s="69"/>
-      <c r="C61" s="69"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="50" t="s">
+    <row r="61" spans="1:40">
+      <c r="A61" s="58"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="16"/>
-      <c r="L61" s="16"/>
-      <c r="M61" s="17"/>
+      <c r="F61" s="80"/>
+      <c r="G61" s="80"/>
+      <c r="H61" s="80"/>
+      <c r="I61" s="80"/>
+      <c r="J61" s="80"/>
+      <c r="K61" s="80"/>
+      <c r="L61" s="80"/>
+      <c r="M61" s="83"/>
       <c r="N61" s="3"/>
-      <c r="O61" s="41"/>
-      <c r="P61" s="42"/>
-      <c r="Q61" s="43"/>
+      <c r="O61" s="106"/>
+      <c r="P61" s="107"/>
+      <c r="Q61" s="108"/>
       <c r="R61" s="3"/>
       <c r="S61" s="3"/>
       <c r="T61" s="3"/>
@@ -4338,24 +4265,24 @@
       <c r="AM61" s="3"/>
       <c r="AN61" s="4"/>
     </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A62" s="68"/>
-      <c r="B62" s="69"/>
-      <c r="C62" s="69"/>
-      <c r="D62" s="70"/>
-      <c r="E62" s="51"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="20"/>
+    <row r="62" spans="1:40">
+      <c r="A62" s="58"/>
+      <c r="B62" s="59"/>
+      <c r="C62" s="59"/>
+      <c r="D62" s="60"/>
+      <c r="E62" s="76"/>
+      <c r="F62" s="77"/>
+      <c r="G62" s="77"/>
+      <c r="H62" s="77"/>
+      <c r="I62" s="77"/>
+      <c r="J62" s="77"/>
+      <c r="K62" s="77"/>
+      <c r="L62" s="77"/>
+      <c r="M62" s="84"/>
       <c r="N62" s="3"/>
-      <c r="O62" s="44"/>
-      <c r="P62" s="45"/>
-      <c r="Q62" s="46"/>
+      <c r="O62" s="109"/>
+      <c r="P62" s="110"/>
+      <c r="Q62" s="111"/>
       <c r="R62" s="3"/>
       <c r="S62" s="3"/>
       <c r="T62" s="3"/>
@@ -4380,24 +4307,24 @@
       <c r="AM62" s="3"/>
       <c r="AN62" s="4"/>
     </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A63" s="68"/>
-      <c r="B63" s="69"/>
-      <c r="C63" s="69"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="52"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="22"/>
-      <c r="L63" s="22"/>
-      <c r="M63" s="23"/>
+    <row r="63" spans="1:40">
+      <c r="A63" s="58"/>
+      <c r="B63" s="59"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="60"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="82"/>
+      <c r="G63" s="82"/>
+      <c r="H63" s="82"/>
+      <c r="I63" s="82"/>
+      <c r="J63" s="82"/>
+      <c r="K63" s="82"/>
+      <c r="L63" s="82"/>
+      <c r="M63" s="85"/>
       <c r="N63" s="3"/>
-      <c r="O63" s="47"/>
-      <c r="P63" s="48"/>
-      <c r="Q63" s="49"/>
+      <c r="O63" s="112"/>
+      <c r="P63" s="113"/>
+      <c r="Q63" s="114"/>
       <c r="R63" s="3"/>
       <c r="S63" s="3"/>
       <c r="T63" s="3"/>
@@ -4422,11 +4349,11 @@
       <c r="AM63" s="3"/>
       <c r="AN63" s="4"/>
     </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A64" s="68"/>
-      <c r="B64" s="69"/>
-      <c r="C64" s="69"/>
-      <c r="D64" s="70"/>
+    <row r="64" spans="1:40">
+      <c r="A64" s="58"/>
+      <c r="B64" s="59"/>
+      <c r="C64" s="59"/>
+      <c r="D64" s="60"/>
       <c r="E64" s="2"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -4464,11 +4391,11 @@
       <c r="AM64" s="3"/>
       <c r="AN64" s="4"/>
     </row>
-    <row r="65" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A65" s="68"/>
-      <c r="B65" s="69"/>
-      <c r="C65" s="69"/>
-      <c r="D65" s="70"/>
+    <row r="65" spans="1:40">
+      <c r="A65" s="58"/>
+      <c r="B65" s="59"/>
+      <c r="C65" s="59"/>
+      <c r="D65" s="60"/>
       <c r="E65" s="2"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
@@ -4506,101 +4433,101 @@
       <c r="AM65" s="3"/>
       <c r="AN65" s="4"/>
     </row>
-    <row r="66" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A66" s="68"/>
-      <c r="B66" s="69"/>
-      <c r="C66" s="69"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="35" t="s">
+    <row r="66" spans="1:40">
+      <c r="A66" s="58"/>
+      <c r="B66" s="59"/>
+      <c r="C66" s="59"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="36"/>
-      <c r="K66" s="36"/>
-      <c r="L66" s="36"/>
-      <c r="M66" s="36"/>
-      <c r="N66" s="36"/>
-      <c r="O66" s="36"/>
-      <c r="P66" s="36"/>
-      <c r="Q66" s="36"/>
-      <c r="R66" s="36"/>
-      <c r="S66" s="36"/>
-      <c r="T66" s="36"/>
-      <c r="U66" s="36"/>
-      <c r="V66" s="36"/>
-      <c r="W66" s="36"/>
-      <c r="X66" s="36"/>
-      <c r="Y66" s="36"/>
-      <c r="Z66" s="36"/>
-      <c r="AA66" s="36"/>
-      <c r="AB66" s="36"/>
-      <c r="AC66" s="36"/>
-      <c r="AD66" s="36"/>
-      <c r="AE66" s="36"/>
-      <c r="AF66" s="36"/>
-      <c r="AG66" s="36"/>
-      <c r="AH66" s="36"/>
-      <c r="AI66" s="36"/>
-      <c r="AJ66" s="36"/>
-      <c r="AK66" s="36"/>
-      <c r="AL66" s="36"/>
-      <c r="AM66" s="36"/>
-      <c r="AN66" s="37"/>
-    </row>
-    <row r="67" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A67" s="68"/>
-      <c r="B67" s="69"/>
-      <c r="C67" s="69"/>
-      <c r="D67" s="70"/>
+      <c r="F66" s="101"/>
+      <c r="G66" s="101"/>
+      <c r="H66" s="101"/>
+      <c r="I66" s="101"/>
+      <c r="J66" s="101"/>
+      <c r="K66" s="101"/>
+      <c r="L66" s="101"/>
+      <c r="M66" s="101"/>
+      <c r="N66" s="101"/>
+      <c r="O66" s="101"/>
+      <c r="P66" s="101"/>
+      <c r="Q66" s="101"/>
+      <c r="R66" s="101"/>
+      <c r="S66" s="101"/>
+      <c r="T66" s="101"/>
+      <c r="U66" s="101"/>
+      <c r="V66" s="101"/>
+      <c r="W66" s="101"/>
+      <c r="X66" s="101"/>
+      <c r="Y66" s="101"/>
+      <c r="Z66" s="101"/>
+      <c r="AA66" s="101"/>
+      <c r="AB66" s="101"/>
+      <c r="AC66" s="101"/>
+      <c r="AD66" s="101"/>
+      <c r="AE66" s="101"/>
+      <c r="AF66" s="101"/>
+      <c r="AG66" s="101"/>
+      <c r="AH66" s="101"/>
+      <c r="AI66" s="101"/>
+      <c r="AJ66" s="101"/>
+      <c r="AK66" s="101"/>
+      <c r="AL66" s="101"/>
+      <c r="AM66" s="101"/>
+      <c r="AN66" s="102"/>
+    </row>
+    <row r="67" spans="1:40">
+      <c r="A67" s="58"/>
+      <c r="B67" s="59"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="60"/>
       <c r="E67" s="2"/>
-      <c r="F67" s="38" t="s">
+      <c r="F67" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="G67" s="39"/>
-      <c r="H67" s="39"/>
-      <c r="I67" s="39"/>
-      <c r="J67" s="39"/>
-      <c r="K67" s="39"/>
-      <c r="L67" s="39"/>
-      <c r="M67" s="39"/>
-      <c r="N67" s="39"/>
-      <c r="O67" s="39"/>
-      <c r="P67" s="39"/>
-      <c r="Q67" s="39"/>
-      <c r="R67" s="39"/>
-      <c r="S67" s="39"/>
-      <c r="T67" s="39"/>
-      <c r="U67" s="40"/>
+      <c r="G67" s="104"/>
+      <c r="H67" s="104"/>
+      <c r="I67" s="104"/>
+      <c r="J67" s="104"/>
+      <c r="K67" s="104"/>
+      <c r="L67" s="104"/>
+      <c r="M67" s="104"/>
+      <c r="N67" s="104"/>
+      <c r="O67" s="104"/>
+      <c r="P67" s="104"/>
+      <c r="Q67" s="104"/>
+      <c r="R67" s="104"/>
+      <c r="S67" s="104"/>
+      <c r="T67" s="104"/>
+      <c r="U67" s="105"/>
       <c r="V67" s="3"/>
-      <c r="W67" s="38" t="s">
+      <c r="W67" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="X67" s="39"/>
-      <c r="Y67" s="39"/>
-      <c r="Z67" s="39"/>
-      <c r="AA67" s="39"/>
-      <c r="AB67" s="39"/>
-      <c r="AC67" s="39"/>
-      <c r="AD67" s="39"/>
-      <c r="AE67" s="39"/>
-      <c r="AF67" s="39"/>
-      <c r="AG67" s="39"/>
-      <c r="AH67" s="39"/>
-      <c r="AI67" s="39"/>
-      <c r="AJ67" s="39"/>
-      <c r="AK67" s="39"/>
-      <c r="AL67" s="40"/>
+      <c r="X67" s="104"/>
+      <c r="Y67" s="104"/>
+      <c r="Z67" s="104"/>
+      <c r="AA67" s="104"/>
+      <c r="AB67" s="104"/>
+      <c r="AC67" s="104"/>
+      <c r="AD67" s="104"/>
+      <c r="AE67" s="104"/>
+      <c r="AF67" s="104"/>
+      <c r="AG67" s="104"/>
+      <c r="AH67" s="104"/>
+      <c r="AI67" s="104"/>
+      <c r="AJ67" s="104"/>
+      <c r="AK67" s="104"/>
+      <c r="AL67" s="105"/>
       <c r="AM67" s="3"/>
       <c r="AN67" s="4"/>
     </row>
-    <row r="68" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A68" s="68"/>
-      <c r="B68" s="69"/>
-      <c r="C68" s="69"/>
-      <c r="D68" s="70"/>
+    <row r="68" spans="1:40">
+      <c r="A68" s="58"/>
+      <c r="B68" s="59"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="60"/>
       <c r="E68" s="2"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -4638,11 +4565,11 @@
       <c r="AM68" s="3"/>
       <c r="AN68" s="4"/>
     </row>
-    <row r="69" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A69" s="68"/>
-      <c r="B69" s="69"/>
-      <c r="C69" s="69"/>
-      <c r="D69" s="70"/>
+    <row r="69" spans="1:40">
+      <c r="A69" s="58"/>
+      <c r="B69" s="59"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="60"/>
       <c r="E69" s="2"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -4658,35 +4585,35 @@
       <c r="Q69" s="3"/>
       <c r="R69" s="3"/>
       <c r="S69" s="3"/>
-      <c r="T69" s="15" t="s">
+      <c r="T69" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="U69" s="16"/>
-      <c r="V69" s="16"/>
-      <c r="W69" s="16"/>
-      <c r="X69" s="16"/>
-      <c r="Y69" s="16"/>
-      <c r="Z69" s="16"/>
-      <c r="AA69" s="16"/>
-      <c r="AB69" s="16"/>
-      <c r="AC69" s="16"/>
-      <c r="AD69" s="16"/>
-      <c r="AE69" s="16"/>
-      <c r="AF69" s="16"/>
-      <c r="AG69" s="16"/>
-      <c r="AH69" s="16"/>
-      <c r="AI69" s="16"/>
-      <c r="AJ69" s="16"/>
-      <c r="AK69" s="16"/>
-      <c r="AL69" s="16"/>
-      <c r="AM69" s="17"/>
+      <c r="U69" s="80"/>
+      <c r="V69" s="80"/>
+      <c r="W69" s="80"/>
+      <c r="X69" s="80"/>
+      <c r="Y69" s="80"/>
+      <c r="Z69" s="80"/>
+      <c r="AA69" s="80"/>
+      <c r="AB69" s="80"/>
+      <c r="AC69" s="80"/>
+      <c r="AD69" s="80"/>
+      <c r="AE69" s="80"/>
+      <c r="AF69" s="80"/>
+      <c r="AG69" s="80"/>
+      <c r="AH69" s="80"/>
+      <c r="AI69" s="80"/>
+      <c r="AJ69" s="80"/>
+      <c r="AK69" s="80"/>
+      <c r="AL69" s="80"/>
+      <c r="AM69" s="83"/>
       <c r="AN69" s="4"/>
     </row>
-    <row r="70" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A70" s="68"/>
-      <c r="B70" s="69"/>
-      <c r="C70" s="69"/>
-      <c r="D70" s="70"/>
+    <row r="70" spans="1:40">
+      <c r="A70" s="58"/>
+      <c r="B70" s="59"/>
+      <c r="C70" s="59"/>
+      <c r="D70" s="60"/>
       <c r="E70" s="2"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
@@ -4702,33 +4629,33 @@
       <c r="Q70" s="3"/>
       <c r="R70" s="3"/>
       <c r="S70" s="3"/>
-      <c r="T70" s="18"/>
-      <c r="U70" s="19"/>
-      <c r="V70" s="19"/>
-      <c r="W70" s="19"/>
-      <c r="X70" s="19"/>
-      <c r="Y70" s="19"/>
-      <c r="Z70" s="19"/>
-      <c r="AA70" s="19"/>
-      <c r="AB70" s="19"/>
-      <c r="AC70" s="19"/>
-      <c r="AD70" s="19"/>
-      <c r="AE70" s="19"/>
-      <c r="AF70" s="19"/>
-      <c r="AG70" s="19"/>
-      <c r="AH70" s="19"/>
-      <c r="AI70" s="19"/>
-      <c r="AJ70" s="19"/>
-      <c r="AK70" s="19"/>
-      <c r="AL70" s="19"/>
-      <c r="AM70" s="20"/>
+      <c r="T70" s="87"/>
+      <c r="U70" s="77"/>
+      <c r="V70" s="77"/>
+      <c r="W70" s="77"/>
+      <c r="X70" s="77"/>
+      <c r="Y70" s="77"/>
+      <c r="Z70" s="77"/>
+      <c r="AA70" s="77"/>
+      <c r="AB70" s="77"/>
+      <c r="AC70" s="77"/>
+      <c r="AD70" s="77"/>
+      <c r="AE70" s="77"/>
+      <c r="AF70" s="77"/>
+      <c r="AG70" s="77"/>
+      <c r="AH70" s="77"/>
+      <c r="AI70" s="77"/>
+      <c r="AJ70" s="77"/>
+      <c r="AK70" s="77"/>
+      <c r="AL70" s="77"/>
+      <c r="AM70" s="84"/>
       <c r="AN70" s="4"/>
     </row>
-    <row r="71" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A71" s="68"/>
-      <c r="B71" s="69"/>
-      <c r="C71" s="69"/>
-      <c r="D71" s="70"/>
+    <row r="71" spans="1:40">
+      <c r="A71" s="58"/>
+      <c r="B71" s="59"/>
+      <c r="C71" s="59"/>
+      <c r="D71" s="60"/>
       <c r="E71" s="2"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
@@ -4744,33 +4671,33 @@
       <c r="Q71" s="3"/>
       <c r="R71" s="3"/>
       <c r="S71" s="3"/>
-      <c r="T71" s="18"/>
-      <c r="U71" s="19"/>
-      <c r="V71" s="19"/>
-      <c r="W71" s="19"/>
-      <c r="X71" s="19"/>
-      <c r="Y71" s="19"/>
-      <c r="Z71" s="19"/>
-      <c r="AA71" s="19"/>
-      <c r="AB71" s="19"/>
-      <c r="AC71" s="19"/>
-      <c r="AD71" s="19"/>
-      <c r="AE71" s="19"/>
-      <c r="AF71" s="19"/>
-      <c r="AG71" s="19"/>
-      <c r="AH71" s="19"/>
-      <c r="AI71" s="19"/>
-      <c r="AJ71" s="19"/>
-      <c r="AK71" s="19"/>
-      <c r="AL71" s="19"/>
-      <c r="AM71" s="20"/>
+      <c r="T71" s="87"/>
+      <c r="U71" s="77"/>
+      <c r="V71" s="77"/>
+      <c r="W71" s="77"/>
+      <c r="X71" s="77"/>
+      <c r="Y71" s="77"/>
+      <c r="Z71" s="77"/>
+      <c r="AA71" s="77"/>
+      <c r="AB71" s="77"/>
+      <c r="AC71" s="77"/>
+      <c r="AD71" s="77"/>
+      <c r="AE71" s="77"/>
+      <c r="AF71" s="77"/>
+      <c r="AG71" s="77"/>
+      <c r="AH71" s="77"/>
+      <c r="AI71" s="77"/>
+      <c r="AJ71" s="77"/>
+      <c r="AK71" s="77"/>
+      <c r="AL71" s="77"/>
+      <c r="AM71" s="84"/>
       <c r="AN71" s="4"/>
     </row>
-    <row r="72" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A72" s="68"/>
-      <c r="B72" s="69"/>
-      <c r="C72" s="69"/>
-      <c r="D72" s="70"/>
+    <row r="72" spans="1:40">
+      <c r="A72" s="58"/>
+      <c r="B72" s="59"/>
+      <c r="C72" s="59"/>
+      <c r="D72" s="60"/>
       <c r="E72" s="2"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -4786,33 +4713,33 @@
       <c r="Q72" s="3"/>
       <c r="R72" s="3"/>
       <c r="S72" s="3"/>
-      <c r="T72" s="18"/>
-      <c r="U72" s="19"/>
-      <c r="V72" s="19"/>
-      <c r="W72" s="19"/>
-      <c r="X72" s="19"/>
-      <c r="Y72" s="19"/>
-      <c r="Z72" s="19"/>
-      <c r="AA72" s="19"/>
-      <c r="AB72" s="19"/>
-      <c r="AC72" s="19"/>
-      <c r="AD72" s="19"/>
-      <c r="AE72" s="19"/>
-      <c r="AF72" s="19"/>
-      <c r="AG72" s="19"/>
-      <c r="AH72" s="19"/>
-      <c r="AI72" s="19"/>
-      <c r="AJ72" s="19"/>
-      <c r="AK72" s="19"/>
-      <c r="AL72" s="19"/>
-      <c r="AM72" s="20"/>
+      <c r="T72" s="87"/>
+      <c r="U72" s="77"/>
+      <c r="V72" s="77"/>
+      <c r="W72" s="77"/>
+      <c r="X72" s="77"/>
+      <c r="Y72" s="77"/>
+      <c r="Z72" s="77"/>
+      <c r="AA72" s="77"/>
+      <c r="AB72" s="77"/>
+      <c r="AC72" s="77"/>
+      <c r="AD72" s="77"/>
+      <c r="AE72" s="77"/>
+      <c r="AF72" s="77"/>
+      <c r="AG72" s="77"/>
+      <c r="AH72" s="77"/>
+      <c r="AI72" s="77"/>
+      <c r="AJ72" s="77"/>
+      <c r="AK72" s="77"/>
+      <c r="AL72" s="77"/>
+      <c r="AM72" s="84"/>
       <c r="AN72" s="4"/>
     </row>
-    <row r="73" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A73" s="68"/>
-      <c r="B73" s="69"/>
-      <c r="C73" s="69"/>
-      <c r="D73" s="70"/>
+    <row r="73" spans="1:40">
+      <c r="A73" s="58"/>
+      <c r="B73" s="59"/>
+      <c r="C73" s="59"/>
+      <c r="D73" s="60"/>
       <c r="E73" s="2"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
@@ -4828,33 +4755,33 @@
       <c r="Q73" s="3"/>
       <c r="R73" s="3"/>
       <c r="S73" s="3"/>
-      <c r="T73" s="18"/>
-      <c r="U73" s="19"/>
-      <c r="V73" s="19"/>
-      <c r="W73" s="19"/>
-      <c r="X73" s="19"/>
-      <c r="Y73" s="19"/>
-      <c r="Z73" s="19"/>
-      <c r="AA73" s="19"/>
-      <c r="AB73" s="19"/>
-      <c r="AC73" s="19"/>
-      <c r="AD73" s="19"/>
-      <c r="AE73" s="19"/>
-      <c r="AF73" s="19"/>
-      <c r="AG73" s="19"/>
-      <c r="AH73" s="19"/>
-      <c r="AI73" s="19"/>
-      <c r="AJ73" s="19"/>
-      <c r="AK73" s="19"/>
-      <c r="AL73" s="19"/>
-      <c r="AM73" s="20"/>
+      <c r="T73" s="87"/>
+      <c r="U73" s="77"/>
+      <c r="V73" s="77"/>
+      <c r="W73" s="77"/>
+      <c r="X73" s="77"/>
+      <c r="Y73" s="77"/>
+      <c r="Z73" s="77"/>
+      <c r="AA73" s="77"/>
+      <c r="AB73" s="77"/>
+      <c r="AC73" s="77"/>
+      <c r="AD73" s="77"/>
+      <c r="AE73" s="77"/>
+      <c r="AF73" s="77"/>
+      <c r="AG73" s="77"/>
+      <c r="AH73" s="77"/>
+      <c r="AI73" s="77"/>
+      <c r="AJ73" s="77"/>
+      <c r="AK73" s="77"/>
+      <c r="AL73" s="77"/>
+      <c r="AM73" s="84"/>
       <c r="AN73" s="4"/>
     </row>
-    <row r="74" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A74" s="68"/>
-      <c r="B74" s="69"/>
-      <c r="C74" s="69"/>
-      <c r="D74" s="70"/>
+    <row r="74" spans="1:40">
+      <c r="A74" s="58"/>
+      <c r="B74" s="59"/>
+      <c r="C74" s="59"/>
+      <c r="D74" s="60"/>
       <c r="E74" s="2"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -4870,33 +4797,33 @@
       <c r="Q74" s="3"/>
       <c r="R74" s="3"/>
       <c r="S74" s="3"/>
-      <c r="T74" s="18"/>
-      <c r="U74" s="19"/>
-      <c r="V74" s="19"/>
-      <c r="W74" s="19"/>
-      <c r="X74" s="19"/>
-      <c r="Y74" s="19"/>
-      <c r="Z74" s="19"/>
-      <c r="AA74" s="19"/>
-      <c r="AB74" s="19"/>
-      <c r="AC74" s="19"/>
-      <c r="AD74" s="19"/>
-      <c r="AE74" s="19"/>
-      <c r="AF74" s="19"/>
-      <c r="AG74" s="19"/>
-      <c r="AH74" s="19"/>
-      <c r="AI74" s="19"/>
-      <c r="AJ74" s="19"/>
-      <c r="AK74" s="19"/>
-      <c r="AL74" s="19"/>
-      <c r="AM74" s="20"/>
+      <c r="T74" s="87"/>
+      <c r="U74" s="77"/>
+      <c r="V74" s="77"/>
+      <c r="W74" s="77"/>
+      <c r="X74" s="77"/>
+      <c r="Y74" s="77"/>
+      <c r="Z74" s="77"/>
+      <c r="AA74" s="77"/>
+      <c r="AB74" s="77"/>
+      <c r="AC74" s="77"/>
+      <c r="AD74" s="77"/>
+      <c r="AE74" s="77"/>
+      <c r="AF74" s="77"/>
+      <c r="AG74" s="77"/>
+      <c r="AH74" s="77"/>
+      <c r="AI74" s="77"/>
+      <c r="AJ74" s="77"/>
+      <c r="AK74" s="77"/>
+      <c r="AL74" s="77"/>
+      <c r="AM74" s="84"/>
       <c r="AN74" s="4"/>
     </row>
-    <row r="75" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A75" s="68"/>
-      <c r="B75" s="69"/>
-      <c r="C75" s="69"/>
-      <c r="D75" s="70"/>
+    <row r="75" spans="1:40">
+      <c r="A75" s="58"/>
+      <c r="B75" s="59"/>
+      <c r="C75" s="59"/>
+      <c r="D75" s="60"/>
       <c r="E75" s="2"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
@@ -4912,33 +4839,33 @@
       <c r="Q75" s="3"/>
       <c r="R75" s="3"/>
       <c r="S75" s="3"/>
-      <c r="T75" s="21"/>
-      <c r="U75" s="22"/>
-      <c r="V75" s="22"/>
-      <c r="W75" s="22"/>
-      <c r="X75" s="22"/>
-      <c r="Y75" s="22"/>
-      <c r="Z75" s="22"/>
-      <c r="AA75" s="22"/>
-      <c r="AB75" s="22"/>
-      <c r="AC75" s="22"/>
-      <c r="AD75" s="22"/>
-      <c r="AE75" s="22"/>
-      <c r="AF75" s="22"/>
-      <c r="AG75" s="22"/>
-      <c r="AH75" s="22"/>
-      <c r="AI75" s="22"/>
-      <c r="AJ75" s="22"/>
-      <c r="AK75" s="22"/>
-      <c r="AL75" s="22"/>
-      <c r="AM75" s="23"/>
+      <c r="T75" s="88"/>
+      <c r="U75" s="82"/>
+      <c r="V75" s="82"/>
+      <c r="W75" s="82"/>
+      <c r="X75" s="82"/>
+      <c r="Y75" s="82"/>
+      <c r="Z75" s="82"/>
+      <c r="AA75" s="82"/>
+      <c r="AB75" s="82"/>
+      <c r="AC75" s="82"/>
+      <c r="AD75" s="82"/>
+      <c r="AE75" s="82"/>
+      <c r="AF75" s="82"/>
+      <c r="AG75" s="82"/>
+      <c r="AH75" s="82"/>
+      <c r="AI75" s="82"/>
+      <c r="AJ75" s="82"/>
+      <c r="AK75" s="82"/>
+      <c r="AL75" s="82"/>
+      <c r="AM75" s="85"/>
       <c r="AN75" s="4"/>
     </row>
-    <row r="76" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A76" s="68"/>
-      <c r="B76" s="69"/>
-      <c r="C76" s="69"/>
-      <c r="D76" s="70"/>
+    <row r="76" spans="1:40">
+      <c r="A76" s="58"/>
+      <c r="B76" s="59"/>
+      <c r="C76" s="59"/>
+      <c r="D76" s="60"/>
       <c r="E76" s="2"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
@@ -4976,11 +4903,11 @@
       <c r="AM76" s="3"/>
       <c r="AN76" s="4"/>
     </row>
-    <row r="77" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A77" s="68"/>
-      <c r="B77" s="69"/>
-      <c r="C77" s="69"/>
-      <c r="D77" s="70"/>
+    <row r="77" spans="1:40">
+      <c r="A77" s="58"/>
+      <c r="B77" s="59"/>
+      <c r="C77" s="59"/>
+      <c r="D77" s="60"/>
       <c r="E77" s="2"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
@@ -5018,11 +4945,11 @@
       <c r="AM77" s="3"/>
       <c r="AN77" s="4"/>
     </row>
-    <row r="78" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A78" s="68"/>
-      <c r="B78" s="69"/>
-      <c r="C78" s="69"/>
-      <c r="D78" s="70"/>
+    <row r="78" spans="1:40">
+      <c r="A78" s="58"/>
+      <c r="B78" s="59"/>
+      <c r="C78" s="59"/>
+      <c r="D78" s="60"/>
       <c r="E78" s="2"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
@@ -5060,11 +4987,11 @@
       <c r="AM78" s="3"/>
       <c r="AN78" s="4"/>
     </row>
-    <row r="79" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A79" s="68"/>
-      <c r="B79" s="69"/>
-      <c r="C79" s="69"/>
-      <c r="D79" s="70"/>
+    <row r="79" spans="1:40">
+      <c r="A79" s="58"/>
+      <c r="B79" s="59"/>
+      <c r="C79" s="59"/>
+      <c r="D79" s="60"/>
       <c r="E79" s="2"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
@@ -5102,11 +5029,11 @@
       <c r="AM79" s="3"/>
       <c r="AN79" s="4"/>
     </row>
-    <row r="80" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A80" s="68"/>
-      <c r="B80" s="69"/>
-      <c r="C80" s="69"/>
-      <c r="D80" s="70"/>
+    <row r="80" spans="1:40">
+      <c r="A80" s="58"/>
+      <c r="B80" s="59"/>
+      <c r="C80" s="59"/>
+      <c r="D80" s="60"/>
       <c r="E80" s="2"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
@@ -5144,11 +5071,11 @@
       <c r="AM80" s="3"/>
       <c r="AN80" s="4"/>
     </row>
-    <row r="81" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A81" s="68"/>
-      <c r="B81" s="69"/>
-      <c r="C81" s="69"/>
-      <c r="D81" s="70"/>
+    <row r="81" spans="1:40">
+      <c r="A81" s="58"/>
+      <c r="B81" s="59"/>
+      <c r="C81" s="59"/>
+      <c r="D81" s="60"/>
       <c r="E81" s="2"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
@@ -5186,11 +5113,11 @@
       <c r="AM81" s="3"/>
       <c r="AN81" s="4"/>
     </row>
-    <row r="82" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A82" s="68"/>
-      <c r="B82" s="69"/>
-      <c r="C82" s="69"/>
-      <c r="D82" s="70"/>
+    <row r="82" spans="1:40">
+      <c r="A82" s="58"/>
+      <c r="B82" s="59"/>
+      <c r="C82" s="59"/>
+      <c r="D82" s="60"/>
       <c r="E82" s="2"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
@@ -5228,11 +5155,11 @@
       <c r="AM82" s="3"/>
       <c r="AN82" s="4"/>
     </row>
-    <row r="83" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A83" s="68"/>
-      <c r="B83" s="69"/>
-      <c r="C83" s="69"/>
-      <c r="D83" s="70"/>
+    <row r="83" spans="1:40">
+      <c r="A83" s="58"/>
+      <c r="B83" s="59"/>
+      <c r="C83" s="59"/>
+      <c r="D83" s="60"/>
       <c r="E83" s="2"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
@@ -5270,11 +5197,11 @@
       <c r="AM83" s="3"/>
       <c r="AN83" s="4"/>
     </row>
-    <row r="84" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A84" s="68"/>
-      <c r="B84" s="69"/>
-      <c r="C84" s="69"/>
-      <c r="D84" s="70"/>
+    <row r="84" spans="1:40">
+      <c r="A84" s="58"/>
+      <c r="B84" s="59"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="60"/>
       <c r="E84" s="2"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -5312,11 +5239,11 @@
       <c r="AM84" s="3"/>
       <c r="AN84" s="4"/>
     </row>
-    <row r="85" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A85" s="68"/>
-      <c r="B85" s="69"/>
-      <c r="C85" s="69"/>
-      <c r="D85" s="70"/>
+    <row r="85" spans="1:40">
+      <c r="A85" s="58"/>
+      <c r="B85" s="59"/>
+      <c r="C85" s="59"/>
+      <c r="D85" s="60"/>
       <c r="E85" s="2"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
@@ -5354,11 +5281,11 @@
       <c r="AM85" s="3"/>
       <c r="AN85" s="4"/>
     </row>
-    <row r="86" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A86" s="68"/>
-      <c r="B86" s="69"/>
-      <c r="C86" s="69"/>
-      <c r="D86" s="70"/>
+    <row r="86" spans="1:40">
+      <c r="A86" s="58"/>
+      <c r="B86" s="59"/>
+      <c r="C86" s="59"/>
+      <c r="D86" s="60"/>
       <c r="E86" s="2"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
@@ -5396,11 +5323,11 @@
       <c r="AM86" s="3"/>
       <c r="AN86" s="4"/>
     </row>
-    <row r="87" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="68"/>
-      <c r="B87" s="69"/>
-      <c r="C87" s="69"/>
-      <c r="D87" s="70"/>
+    <row r="87" spans="1:40" ht="18.75" customHeight="1">
+      <c r="A87" s="58"/>
+      <c r="B87" s="59"/>
+      <c r="C87" s="59"/>
+      <c r="D87" s="60"/>
       <c r="E87" s="2"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
@@ -5416,35 +5343,35 @@
       <c r="Q87" s="3"/>
       <c r="R87" s="3"/>
       <c r="S87" s="3"/>
-      <c r="T87" s="15" t="s">
+      <c r="T87" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="U87" s="24"/>
-      <c r="V87" s="24"/>
-      <c r="W87" s="24"/>
-      <c r="X87" s="24"/>
-      <c r="Y87" s="24"/>
-      <c r="Z87" s="24"/>
-      <c r="AA87" s="24"/>
-      <c r="AB87" s="24"/>
-      <c r="AC87" s="24"/>
-      <c r="AD87" s="24"/>
-      <c r="AE87" s="24"/>
-      <c r="AF87" s="24"/>
-      <c r="AG87" s="24"/>
-      <c r="AH87" s="24"/>
-      <c r="AI87" s="24"/>
-      <c r="AJ87" s="24"/>
-      <c r="AK87" s="24"/>
-      <c r="AL87" s="24"/>
-      <c r="AM87" s="25"/>
+      <c r="U87" s="89"/>
+      <c r="V87" s="89"/>
+      <c r="W87" s="89"/>
+      <c r="X87" s="89"/>
+      <c r="Y87" s="89"/>
+      <c r="Z87" s="89"/>
+      <c r="AA87" s="89"/>
+      <c r="AB87" s="89"/>
+      <c r="AC87" s="89"/>
+      <c r="AD87" s="89"/>
+      <c r="AE87" s="89"/>
+      <c r="AF87" s="89"/>
+      <c r="AG87" s="89"/>
+      <c r="AH87" s="89"/>
+      <c r="AI87" s="89"/>
+      <c r="AJ87" s="89"/>
+      <c r="AK87" s="89"/>
+      <c r="AL87" s="89"/>
+      <c r="AM87" s="90"/>
       <c r="AN87" s="4"/>
     </row>
-    <row r="88" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A88" s="68"/>
-      <c r="B88" s="69"/>
-      <c r="C88" s="69"/>
-      <c r="D88" s="70"/>
+    <row r="88" spans="1:40">
+      <c r="A88" s="58"/>
+      <c r="B88" s="59"/>
+      <c r="C88" s="59"/>
+      <c r="D88" s="60"/>
       <c r="E88" s="2"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
@@ -5460,33 +5387,33 @@
       <c r="Q88" s="3"/>
       <c r="R88" s="3"/>
       <c r="S88" s="3"/>
-      <c r="T88" s="26"/>
-      <c r="U88" s="27"/>
-      <c r="V88" s="27"/>
-      <c r="W88" s="27"/>
-      <c r="X88" s="27"/>
-      <c r="Y88" s="27"/>
-      <c r="Z88" s="27"/>
-      <c r="AA88" s="27"/>
-      <c r="AB88" s="27"/>
-      <c r="AC88" s="27"/>
-      <c r="AD88" s="27"/>
-      <c r="AE88" s="27"/>
-      <c r="AF88" s="27"/>
-      <c r="AG88" s="27"/>
-      <c r="AH88" s="27"/>
-      <c r="AI88" s="27"/>
-      <c r="AJ88" s="27"/>
-      <c r="AK88" s="27"/>
-      <c r="AL88" s="27"/>
-      <c r="AM88" s="28"/>
+      <c r="T88" s="91"/>
+      <c r="U88" s="92"/>
+      <c r="V88" s="92"/>
+      <c r="W88" s="92"/>
+      <c r="X88" s="92"/>
+      <c r="Y88" s="92"/>
+      <c r="Z88" s="92"/>
+      <c r="AA88" s="92"/>
+      <c r="AB88" s="92"/>
+      <c r="AC88" s="92"/>
+      <c r="AD88" s="92"/>
+      <c r="AE88" s="92"/>
+      <c r="AF88" s="92"/>
+      <c r="AG88" s="92"/>
+      <c r="AH88" s="92"/>
+      <c r="AI88" s="92"/>
+      <c r="AJ88" s="92"/>
+      <c r="AK88" s="92"/>
+      <c r="AL88" s="92"/>
+      <c r="AM88" s="93"/>
       <c r="AN88" s="4"/>
     </row>
-    <row r="89" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A89" s="68"/>
-      <c r="B89" s="69"/>
-      <c r="C89" s="69"/>
-      <c r="D89" s="70"/>
+    <row r="89" spans="1:40">
+      <c r="A89" s="58"/>
+      <c r="B89" s="59"/>
+      <c r="C89" s="59"/>
+      <c r="D89" s="60"/>
       <c r="E89" s="2"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
@@ -5502,33 +5429,33 @@
       <c r="Q89" s="3"/>
       <c r="R89" s="3"/>
       <c r="S89" s="3"/>
-      <c r="T89" s="26"/>
-      <c r="U89" s="27"/>
-      <c r="V89" s="27"/>
-      <c r="W89" s="27"/>
-      <c r="X89" s="27"/>
-      <c r="Y89" s="27"/>
-      <c r="Z89" s="27"/>
-      <c r="AA89" s="27"/>
-      <c r="AB89" s="27"/>
-      <c r="AC89" s="27"/>
-      <c r="AD89" s="27"/>
-      <c r="AE89" s="27"/>
-      <c r="AF89" s="27"/>
-      <c r="AG89" s="27"/>
-      <c r="AH89" s="27"/>
-      <c r="AI89" s="27"/>
-      <c r="AJ89" s="27"/>
-      <c r="AK89" s="27"/>
-      <c r="AL89" s="27"/>
-      <c r="AM89" s="28"/>
+      <c r="T89" s="91"/>
+      <c r="U89" s="92"/>
+      <c r="V89" s="92"/>
+      <c r="W89" s="92"/>
+      <c r="X89" s="92"/>
+      <c r="Y89" s="92"/>
+      <c r="Z89" s="92"/>
+      <c r="AA89" s="92"/>
+      <c r="AB89" s="92"/>
+      <c r="AC89" s="92"/>
+      <c r="AD89" s="92"/>
+      <c r="AE89" s="92"/>
+      <c r="AF89" s="92"/>
+      <c r="AG89" s="92"/>
+      <c r="AH89" s="92"/>
+      <c r="AI89" s="92"/>
+      <c r="AJ89" s="92"/>
+      <c r="AK89" s="92"/>
+      <c r="AL89" s="92"/>
+      <c r="AM89" s="93"/>
       <c r="AN89" s="4"/>
     </row>
-    <row r="90" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A90" s="68"/>
-      <c r="B90" s="69"/>
-      <c r="C90" s="69"/>
-      <c r="D90" s="70"/>
+    <row r="90" spans="1:40">
+      <c r="A90" s="58"/>
+      <c r="B90" s="59"/>
+      <c r="C90" s="59"/>
+      <c r="D90" s="60"/>
       <c r="E90" s="2"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
@@ -5544,33 +5471,33 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-      <c r="T90" s="26"/>
-      <c r="U90" s="27"/>
-      <c r="V90" s="27"/>
-      <c r="W90" s="27"/>
-      <c r="X90" s="27"/>
-      <c r="Y90" s="27"/>
-      <c r="Z90" s="27"/>
-      <c r="AA90" s="27"/>
-      <c r="AB90" s="27"/>
-      <c r="AC90" s="27"/>
-      <c r="AD90" s="27"/>
-      <c r="AE90" s="27"/>
-      <c r="AF90" s="27"/>
-      <c r="AG90" s="27"/>
-      <c r="AH90" s="27"/>
-      <c r="AI90" s="27"/>
-      <c r="AJ90" s="27"/>
-      <c r="AK90" s="27"/>
-      <c r="AL90" s="27"/>
-      <c r="AM90" s="28"/>
+      <c r="T90" s="91"/>
+      <c r="U90" s="92"/>
+      <c r="V90" s="92"/>
+      <c r="W90" s="92"/>
+      <c r="X90" s="92"/>
+      <c r="Y90" s="92"/>
+      <c r="Z90" s="92"/>
+      <c r="AA90" s="92"/>
+      <c r="AB90" s="92"/>
+      <c r="AC90" s="92"/>
+      <c r="AD90" s="92"/>
+      <c r="AE90" s="92"/>
+      <c r="AF90" s="92"/>
+      <c r="AG90" s="92"/>
+      <c r="AH90" s="92"/>
+      <c r="AI90" s="92"/>
+      <c r="AJ90" s="92"/>
+      <c r="AK90" s="92"/>
+      <c r="AL90" s="92"/>
+      <c r="AM90" s="93"/>
       <c r="AN90" s="4"/>
     </row>
-    <row r="91" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A91" s="68"/>
-      <c r="B91" s="69"/>
-      <c r="C91" s="69"/>
-      <c r="D91" s="70"/>
+    <row r="91" spans="1:40">
+      <c r="A91" s="58"/>
+      <c r="B91" s="59"/>
+      <c r="C91" s="59"/>
+      <c r="D91" s="60"/>
       <c r="E91" s="2"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
@@ -5586,33 +5513,33 @@
       <c r="Q91" s="3"/>
       <c r="R91" s="3"/>
       <c r="S91" s="3"/>
-      <c r="T91" s="26"/>
-      <c r="U91" s="27"/>
-      <c r="V91" s="27"/>
-      <c r="W91" s="27"/>
-      <c r="X91" s="27"/>
-      <c r="Y91" s="27"/>
-      <c r="Z91" s="27"/>
-      <c r="AA91" s="27"/>
-      <c r="AB91" s="27"/>
-      <c r="AC91" s="27"/>
-      <c r="AD91" s="27"/>
-      <c r="AE91" s="27"/>
-      <c r="AF91" s="27"/>
-      <c r="AG91" s="27"/>
-      <c r="AH91" s="27"/>
-      <c r="AI91" s="27"/>
-      <c r="AJ91" s="27"/>
-      <c r="AK91" s="27"/>
-      <c r="AL91" s="27"/>
-      <c r="AM91" s="28"/>
+      <c r="T91" s="91"/>
+      <c r="U91" s="92"/>
+      <c r="V91" s="92"/>
+      <c r="W91" s="92"/>
+      <c r="X91" s="92"/>
+      <c r="Y91" s="92"/>
+      <c r="Z91" s="92"/>
+      <c r="AA91" s="92"/>
+      <c r="AB91" s="92"/>
+      <c r="AC91" s="92"/>
+      <c r="AD91" s="92"/>
+      <c r="AE91" s="92"/>
+      <c r="AF91" s="92"/>
+      <c r="AG91" s="92"/>
+      <c r="AH91" s="92"/>
+      <c r="AI91" s="92"/>
+      <c r="AJ91" s="92"/>
+      <c r="AK91" s="92"/>
+      <c r="AL91" s="92"/>
+      <c r="AM91" s="93"/>
       <c r="AN91" s="4"/>
     </row>
-    <row r="92" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A92" s="68"/>
-      <c r="B92" s="69"/>
-      <c r="C92" s="69"/>
-      <c r="D92" s="70"/>
+    <row r="92" spans="1:40">
+      <c r="A92" s="58"/>
+      <c r="B92" s="59"/>
+      <c r="C92" s="59"/>
+      <c r="D92" s="60"/>
       <c r="E92" s="2"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
@@ -5628,33 +5555,33 @@
       <c r="Q92" s="3"/>
       <c r="R92" s="3"/>
       <c r="S92" s="3"/>
-      <c r="T92" s="26"/>
-      <c r="U92" s="27"/>
-      <c r="V92" s="27"/>
-      <c r="W92" s="27"/>
-      <c r="X92" s="27"/>
-      <c r="Y92" s="27"/>
-      <c r="Z92" s="27"/>
-      <c r="AA92" s="27"/>
-      <c r="AB92" s="27"/>
-      <c r="AC92" s="27"/>
-      <c r="AD92" s="27"/>
-      <c r="AE92" s="27"/>
-      <c r="AF92" s="27"/>
-      <c r="AG92" s="27"/>
-      <c r="AH92" s="27"/>
-      <c r="AI92" s="27"/>
-      <c r="AJ92" s="27"/>
-      <c r="AK92" s="27"/>
-      <c r="AL92" s="27"/>
-      <c r="AM92" s="28"/>
+      <c r="T92" s="91"/>
+      <c r="U92" s="92"/>
+      <c r="V92" s="92"/>
+      <c r="W92" s="92"/>
+      <c r="X92" s="92"/>
+      <c r="Y92" s="92"/>
+      <c r="Z92" s="92"/>
+      <c r="AA92" s="92"/>
+      <c r="AB92" s="92"/>
+      <c r="AC92" s="92"/>
+      <c r="AD92" s="92"/>
+      <c r="AE92" s="92"/>
+      <c r="AF92" s="92"/>
+      <c r="AG92" s="92"/>
+      <c r="AH92" s="92"/>
+      <c r="AI92" s="92"/>
+      <c r="AJ92" s="92"/>
+      <c r="AK92" s="92"/>
+      <c r="AL92" s="92"/>
+      <c r="AM92" s="93"/>
       <c r="AN92" s="4"/>
     </row>
-    <row r="93" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A93" s="68"/>
-      <c r="B93" s="69"/>
-      <c r="C93" s="69"/>
-      <c r="D93" s="70"/>
+    <row r="93" spans="1:40">
+      <c r="A93" s="58"/>
+      <c r="B93" s="59"/>
+      <c r="C93" s="59"/>
+      <c r="D93" s="60"/>
       <c r="E93" s="2"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
@@ -5670,33 +5597,33 @@
       <c r="Q93" s="3"/>
       <c r="R93" s="3"/>
       <c r="S93" s="3"/>
-      <c r="T93" s="26"/>
-      <c r="U93" s="27"/>
-      <c r="V93" s="27"/>
-      <c r="W93" s="27"/>
-      <c r="X93" s="27"/>
-      <c r="Y93" s="27"/>
-      <c r="Z93" s="27"/>
-      <c r="AA93" s="27"/>
-      <c r="AB93" s="27"/>
-      <c r="AC93" s="27"/>
-      <c r="AD93" s="27"/>
-      <c r="AE93" s="27"/>
-      <c r="AF93" s="27"/>
-      <c r="AG93" s="27"/>
-      <c r="AH93" s="27"/>
-      <c r="AI93" s="27"/>
-      <c r="AJ93" s="27"/>
-      <c r="AK93" s="27"/>
-      <c r="AL93" s="27"/>
-      <c r="AM93" s="28"/>
+      <c r="T93" s="91"/>
+      <c r="U93" s="92"/>
+      <c r="V93" s="92"/>
+      <c r="W93" s="92"/>
+      <c r="X93" s="92"/>
+      <c r="Y93" s="92"/>
+      <c r="Z93" s="92"/>
+      <c r="AA93" s="92"/>
+      <c r="AB93" s="92"/>
+      <c r="AC93" s="92"/>
+      <c r="AD93" s="92"/>
+      <c r="AE93" s="92"/>
+      <c r="AF93" s="92"/>
+      <c r="AG93" s="92"/>
+      <c r="AH93" s="92"/>
+      <c r="AI93" s="92"/>
+      <c r="AJ93" s="92"/>
+      <c r="AK93" s="92"/>
+      <c r="AL93" s="92"/>
+      <c r="AM93" s="93"/>
       <c r="AN93" s="4"/>
     </row>
-    <row r="94" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A94" s="68"/>
-      <c r="B94" s="69"/>
-      <c r="C94" s="69"/>
-      <c r="D94" s="70"/>
+    <row r="94" spans="1:40">
+      <c r="A94" s="58"/>
+      <c r="B94" s="59"/>
+      <c r="C94" s="59"/>
+      <c r="D94" s="60"/>
       <c r="E94" s="2"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -5712,33 +5639,33 @@
       <c r="Q94" s="3"/>
       <c r="R94" s="3"/>
       <c r="S94" s="3"/>
-      <c r="T94" s="26"/>
-      <c r="U94" s="27"/>
-      <c r="V94" s="27"/>
-      <c r="W94" s="27"/>
-      <c r="X94" s="27"/>
-      <c r="Y94" s="27"/>
-      <c r="Z94" s="27"/>
-      <c r="AA94" s="27"/>
-      <c r="AB94" s="27"/>
-      <c r="AC94" s="27"/>
-      <c r="AD94" s="27"/>
-      <c r="AE94" s="27"/>
-      <c r="AF94" s="27"/>
-      <c r="AG94" s="27"/>
-      <c r="AH94" s="27"/>
-      <c r="AI94" s="27"/>
-      <c r="AJ94" s="27"/>
-      <c r="AK94" s="27"/>
-      <c r="AL94" s="27"/>
-      <c r="AM94" s="28"/>
+      <c r="T94" s="91"/>
+      <c r="U94" s="92"/>
+      <c r="V94" s="92"/>
+      <c r="W94" s="92"/>
+      <c r="X94" s="92"/>
+      <c r="Y94" s="92"/>
+      <c r="Z94" s="92"/>
+      <c r="AA94" s="92"/>
+      <c r="AB94" s="92"/>
+      <c r="AC94" s="92"/>
+      <c r="AD94" s="92"/>
+      <c r="AE94" s="92"/>
+      <c r="AF94" s="92"/>
+      <c r="AG94" s="92"/>
+      <c r="AH94" s="92"/>
+      <c r="AI94" s="92"/>
+      <c r="AJ94" s="92"/>
+      <c r="AK94" s="92"/>
+      <c r="AL94" s="92"/>
+      <c r="AM94" s="93"/>
       <c r="AN94" s="4"/>
     </row>
-    <row r="95" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A95" s="68"/>
-      <c r="B95" s="69"/>
-      <c r="C95" s="69"/>
-      <c r="D95" s="70"/>
+    <row r="95" spans="1:40">
+      <c r="A95" s="58"/>
+      <c r="B95" s="59"/>
+      <c r="C95" s="59"/>
+      <c r="D95" s="60"/>
       <c r="E95" s="2"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
@@ -5754,33 +5681,33 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-      <c r="T95" s="26"/>
-      <c r="U95" s="27"/>
-      <c r="V95" s="27"/>
-      <c r="W95" s="27"/>
-      <c r="X95" s="27"/>
-      <c r="Y95" s="27"/>
-      <c r="Z95" s="27"/>
-      <c r="AA95" s="27"/>
-      <c r="AB95" s="27"/>
-      <c r="AC95" s="27"/>
-      <c r="AD95" s="27"/>
-      <c r="AE95" s="27"/>
-      <c r="AF95" s="27"/>
-      <c r="AG95" s="27"/>
-      <c r="AH95" s="27"/>
-      <c r="AI95" s="27"/>
-      <c r="AJ95" s="27"/>
-      <c r="AK95" s="27"/>
-      <c r="AL95" s="27"/>
-      <c r="AM95" s="28"/>
+      <c r="T95" s="91"/>
+      <c r="U95" s="92"/>
+      <c r="V95" s="92"/>
+      <c r="W95" s="92"/>
+      <c r="X95" s="92"/>
+      <c r="Y95" s="92"/>
+      <c r="Z95" s="92"/>
+      <c r="AA95" s="92"/>
+      <c r="AB95" s="92"/>
+      <c r="AC95" s="92"/>
+      <c r="AD95" s="92"/>
+      <c r="AE95" s="92"/>
+      <c r="AF95" s="92"/>
+      <c r="AG95" s="92"/>
+      <c r="AH95" s="92"/>
+      <c r="AI95" s="92"/>
+      <c r="AJ95" s="92"/>
+      <c r="AK95" s="92"/>
+      <c r="AL95" s="92"/>
+      <c r="AM95" s="93"/>
       <c r="AN95" s="4"/>
     </row>
-    <row r="96" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A96" s="68"/>
-      <c r="B96" s="69"/>
-      <c r="C96" s="69"/>
-      <c r="D96" s="70"/>
+    <row r="96" spans="1:40">
+      <c r="A96" s="58"/>
+      <c r="B96" s="59"/>
+      <c r="C96" s="59"/>
+      <c r="D96" s="60"/>
       <c r="E96" s="2"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
@@ -5796,33 +5723,33 @@
       <c r="Q96" s="3"/>
       <c r="R96" s="3"/>
       <c r="S96" s="3"/>
-      <c r="T96" s="26"/>
-      <c r="U96" s="27"/>
-      <c r="V96" s="27"/>
-      <c r="W96" s="27"/>
-      <c r="X96" s="27"/>
-      <c r="Y96" s="27"/>
-      <c r="Z96" s="27"/>
-      <c r="AA96" s="27"/>
-      <c r="AB96" s="27"/>
-      <c r="AC96" s="27"/>
-      <c r="AD96" s="27"/>
-      <c r="AE96" s="27"/>
-      <c r="AF96" s="27"/>
-      <c r="AG96" s="27"/>
-      <c r="AH96" s="27"/>
-      <c r="AI96" s="27"/>
-      <c r="AJ96" s="27"/>
-      <c r="AK96" s="27"/>
-      <c r="AL96" s="27"/>
-      <c r="AM96" s="28"/>
+      <c r="T96" s="91"/>
+      <c r="U96" s="92"/>
+      <c r="V96" s="92"/>
+      <c r="W96" s="92"/>
+      <c r="X96" s="92"/>
+      <c r="Y96" s="92"/>
+      <c r="Z96" s="92"/>
+      <c r="AA96" s="92"/>
+      <c r="AB96" s="92"/>
+      <c r="AC96" s="92"/>
+      <c r="AD96" s="92"/>
+      <c r="AE96" s="92"/>
+      <c r="AF96" s="92"/>
+      <c r="AG96" s="92"/>
+      <c r="AH96" s="92"/>
+      <c r="AI96" s="92"/>
+      <c r="AJ96" s="92"/>
+      <c r="AK96" s="92"/>
+      <c r="AL96" s="92"/>
+      <c r="AM96" s="93"/>
       <c r="AN96" s="4"/>
     </row>
-    <row r="97" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A97" s="68"/>
-      <c r="B97" s="69"/>
-      <c r="C97" s="69"/>
-      <c r="D97" s="70"/>
+    <row r="97" spans="1:40">
+      <c r="A97" s="58"/>
+      <c r="B97" s="59"/>
+      <c r="C97" s="59"/>
+      <c r="D97" s="60"/>
       <c r="E97" s="2"/>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
@@ -5838,33 +5765,33 @@
       <c r="Q97" s="3"/>
       <c r="R97" s="3"/>
       <c r="S97" s="3"/>
-      <c r="T97" s="26"/>
-      <c r="U97" s="27"/>
-      <c r="V97" s="27"/>
-      <c r="W97" s="27"/>
-      <c r="X97" s="27"/>
-      <c r="Y97" s="27"/>
-      <c r="Z97" s="27"/>
-      <c r="AA97" s="27"/>
-      <c r="AB97" s="27"/>
-      <c r="AC97" s="27"/>
-      <c r="AD97" s="27"/>
-      <c r="AE97" s="27"/>
-      <c r="AF97" s="27"/>
-      <c r="AG97" s="27"/>
-      <c r="AH97" s="27"/>
-      <c r="AI97" s="27"/>
-      <c r="AJ97" s="27"/>
-      <c r="AK97" s="27"/>
-      <c r="AL97" s="27"/>
-      <c r="AM97" s="28"/>
+      <c r="T97" s="91"/>
+      <c r="U97" s="92"/>
+      <c r="V97" s="92"/>
+      <c r="W97" s="92"/>
+      <c r="X97" s="92"/>
+      <c r="Y97" s="92"/>
+      <c r="Z97" s="92"/>
+      <c r="AA97" s="92"/>
+      <c r="AB97" s="92"/>
+      <c r="AC97" s="92"/>
+      <c r="AD97" s="92"/>
+      <c r="AE97" s="92"/>
+      <c r="AF97" s="92"/>
+      <c r="AG97" s="92"/>
+      <c r="AH97" s="92"/>
+      <c r="AI97" s="92"/>
+      <c r="AJ97" s="92"/>
+      <c r="AK97" s="92"/>
+      <c r="AL97" s="92"/>
+      <c r="AM97" s="93"/>
       <c r="AN97" s="4"/>
     </row>
-    <row r="98" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A98" s="68"/>
-      <c r="B98" s="69"/>
-      <c r="C98" s="69"/>
-      <c r="D98" s="70"/>
+    <row r="98" spans="1:40">
+      <c r="A98" s="58"/>
+      <c r="B98" s="59"/>
+      <c r="C98" s="59"/>
+      <c r="D98" s="60"/>
       <c r="E98" s="2"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
@@ -5880,33 +5807,33 @@
       <c r="Q98" s="3"/>
       <c r="R98" s="3"/>
       <c r="S98" s="3"/>
-      <c r="T98" s="26"/>
-      <c r="U98" s="27"/>
-      <c r="V98" s="27"/>
-      <c r="W98" s="27"/>
-      <c r="X98" s="27"/>
-      <c r="Y98" s="27"/>
-      <c r="Z98" s="27"/>
-      <c r="AA98" s="27"/>
-      <c r="AB98" s="27"/>
-      <c r="AC98" s="27"/>
-      <c r="AD98" s="27"/>
-      <c r="AE98" s="27"/>
-      <c r="AF98" s="27"/>
-      <c r="AG98" s="27"/>
-      <c r="AH98" s="27"/>
-      <c r="AI98" s="27"/>
-      <c r="AJ98" s="27"/>
-      <c r="AK98" s="27"/>
-      <c r="AL98" s="27"/>
-      <c r="AM98" s="28"/>
+      <c r="T98" s="91"/>
+      <c r="U98" s="92"/>
+      <c r="V98" s="92"/>
+      <c r="W98" s="92"/>
+      <c r="X98" s="92"/>
+      <c r="Y98" s="92"/>
+      <c r="Z98" s="92"/>
+      <c r="AA98" s="92"/>
+      <c r="AB98" s="92"/>
+      <c r="AC98" s="92"/>
+      <c r="AD98" s="92"/>
+      <c r="AE98" s="92"/>
+      <c r="AF98" s="92"/>
+      <c r="AG98" s="92"/>
+      <c r="AH98" s="92"/>
+      <c r="AI98" s="92"/>
+      <c r="AJ98" s="92"/>
+      <c r="AK98" s="92"/>
+      <c r="AL98" s="92"/>
+      <c r="AM98" s="93"/>
       <c r="AN98" s="4"/>
     </row>
-    <row r="99" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A99" s="68"/>
-      <c r="B99" s="69"/>
-      <c r="C99" s="69"/>
-      <c r="D99" s="70"/>
+    <row r="99" spans="1:40">
+      <c r="A99" s="58"/>
+      <c r="B99" s="59"/>
+      <c r="C99" s="59"/>
+      <c r="D99" s="60"/>
       <c r="E99" s="2"/>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
@@ -5922,33 +5849,33 @@
       <c r="Q99" s="3"/>
       <c r="R99" s="3"/>
       <c r="S99" s="3"/>
-      <c r="T99" s="29"/>
-      <c r="U99" s="30"/>
-      <c r="V99" s="30"/>
-      <c r="W99" s="30"/>
-      <c r="X99" s="30"/>
-      <c r="Y99" s="30"/>
-      <c r="Z99" s="30"/>
-      <c r="AA99" s="30"/>
-      <c r="AB99" s="30"/>
-      <c r="AC99" s="30"/>
-      <c r="AD99" s="30"/>
-      <c r="AE99" s="30"/>
-      <c r="AF99" s="30"/>
-      <c r="AG99" s="30"/>
-      <c r="AH99" s="30"/>
-      <c r="AI99" s="30"/>
-      <c r="AJ99" s="30"/>
-      <c r="AK99" s="30"/>
-      <c r="AL99" s="30"/>
-      <c r="AM99" s="31"/>
+      <c r="T99" s="94"/>
+      <c r="U99" s="95"/>
+      <c r="V99" s="95"/>
+      <c r="W99" s="95"/>
+      <c r="X99" s="95"/>
+      <c r="Y99" s="95"/>
+      <c r="Z99" s="95"/>
+      <c r="AA99" s="95"/>
+      <c r="AB99" s="95"/>
+      <c r="AC99" s="95"/>
+      <c r="AD99" s="95"/>
+      <c r="AE99" s="95"/>
+      <c r="AF99" s="95"/>
+      <c r="AG99" s="95"/>
+      <c r="AH99" s="95"/>
+      <c r="AI99" s="95"/>
+      <c r="AJ99" s="95"/>
+      <c r="AK99" s="95"/>
+      <c r="AL99" s="95"/>
+      <c r="AM99" s="96"/>
       <c r="AN99" s="4"/>
     </row>
-    <row r="100" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A100" s="68"/>
-      <c r="B100" s="69"/>
-      <c r="C100" s="69"/>
-      <c r="D100" s="70"/>
+    <row r="100" spans="1:40">
+      <c r="A100" s="58"/>
+      <c r="B100" s="59"/>
+      <c r="C100" s="59"/>
+      <c r="D100" s="60"/>
       <c r="E100" s="2"/>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
@@ -5986,11 +5913,11 @@
       <c r="AM100" s="3"/>
       <c r="AN100" s="4"/>
     </row>
-    <row r="101" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A101" s="68"/>
-      <c r="B101" s="69"/>
-      <c r="C101" s="69"/>
-      <c r="D101" s="70"/>
+    <row r="101" spans="1:40">
+      <c r="A101" s="58"/>
+      <c r="B101" s="59"/>
+      <c r="C101" s="59"/>
+      <c r="D101" s="60"/>
       <c r="E101" s="2"/>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
@@ -6028,11 +5955,11 @@
       <c r="AM101" s="3"/>
       <c r="AN101" s="4"/>
     </row>
-    <row r="102" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A102" s="68"/>
-      <c r="B102" s="69"/>
-      <c r="C102" s="69"/>
-      <c r="D102" s="70"/>
+    <row r="102" spans="1:40">
+      <c r="A102" s="58"/>
+      <c r="B102" s="59"/>
+      <c r="C102" s="59"/>
+      <c r="D102" s="60"/>
       <c r="E102" s="2"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
@@ -6070,11 +5997,11 @@
       <c r="AM102" s="3"/>
       <c r="AN102" s="4"/>
     </row>
-    <row r="103" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A103" s="68"/>
-      <c r="B103" s="69"/>
-      <c r="C103" s="69"/>
-      <c r="D103" s="70"/>
+    <row r="103" spans="1:40">
+      <c r="A103" s="58"/>
+      <c r="B103" s="59"/>
+      <c r="C103" s="59"/>
+      <c r="D103" s="60"/>
       <c r="E103" s="2"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
@@ -6112,11 +6039,11 @@
       <c r="AM103" s="3"/>
       <c r="AN103" s="4"/>
     </row>
-    <row r="104" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A104" s="68"/>
-      <c r="B104" s="69"/>
-      <c r="C104" s="69"/>
-      <c r="D104" s="70"/>
+    <row r="104" spans="1:40">
+      <c r="A104" s="58"/>
+      <c r="B104" s="59"/>
+      <c r="C104" s="59"/>
+      <c r="D104" s="60"/>
       <c r="E104" s="2"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -6154,11 +6081,11 @@
       <c r="AM104" s="3"/>
       <c r="AN104" s="4"/>
     </row>
-    <row r="105" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A105" s="68"/>
-      <c r="B105" s="69"/>
-      <c r="C105" s="69"/>
-      <c r="D105" s="70"/>
+    <row r="105" spans="1:40">
+      <c r="A105" s="58"/>
+      <c r="B105" s="59"/>
+      <c r="C105" s="59"/>
+      <c r="D105" s="60"/>
       <c r="E105" s="2"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
@@ -6196,11 +6123,11 @@
       <c r="AM105" s="3"/>
       <c r="AN105" s="4"/>
     </row>
-    <row r="106" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A106" s="68"/>
-      <c r="B106" s="69"/>
-      <c r="C106" s="69"/>
-      <c r="D106" s="70"/>
+    <row r="106" spans="1:40">
+      <c r="A106" s="58"/>
+      <c r="B106" s="59"/>
+      <c r="C106" s="59"/>
+      <c r="D106" s="60"/>
       <c r="E106" s="2"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
@@ -6238,11 +6165,11 @@
       <c r="AM106" s="3"/>
       <c r="AN106" s="4"/>
     </row>
-    <row r="107" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A107" s="68"/>
-      <c r="B107" s="69"/>
-      <c r="C107" s="69"/>
-      <c r="D107" s="70"/>
+    <row r="107" spans="1:40">
+      <c r="A107" s="58"/>
+      <c r="B107" s="59"/>
+      <c r="C107" s="59"/>
+      <c r="D107" s="60"/>
       <c r="E107" s="2"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
@@ -6280,11 +6207,11 @@
       <c r="AM107" s="3"/>
       <c r="AN107" s="4"/>
     </row>
-    <row r="108" spans="1:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="71"/>
-      <c r="B108" s="72"/>
-      <c r="C108" s="72"/>
-      <c r="D108" s="73"/>
+    <row r="108" spans="1:40" ht="19.5" thickBot="1">
+      <c r="A108" s="61"/>
+      <c r="B108" s="62"/>
+      <c r="C108" s="62"/>
+      <c r="D108" s="63"/>
       <c r="E108" s="11"/>
       <c r="F108" s="12"/>
       <c r="G108" s="12"/>
@@ -6324,17 +6251,8 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:AN1"/>
-    <mergeCell ref="A2:AN3"/>
-    <mergeCell ref="A4:S4"/>
-    <mergeCell ref="A5:S5"/>
-    <mergeCell ref="A6:S6"/>
-    <mergeCell ref="A8:AN8"/>
-    <mergeCell ref="T4:AN4"/>
-    <mergeCell ref="T5:AN5"/>
-    <mergeCell ref="T6:AN6"/>
-    <mergeCell ref="T7:AN7"/>
-    <mergeCell ref="A7:S7"/>
+    <mergeCell ref="U57:AB59"/>
+    <mergeCell ref="AD57:AH59"/>
     <mergeCell ref="A9:D19"/>
     <mergeCell ref="A20:AN20"/>
     <mergeCell ref="A21:D108"/>
@@ -6351,62 +6269,47 @@
     <mergeCell ref="O57:Q59"/>
     <mergeCell ref="E61:M63"/>
     <mergeCell ref="O61:Q63"/>
-    <mergeCell ref="U57:AB59"/>
-    <mergeCell ref="AD57:AH59"/>
+    <mergeCell ref="A8:AN8"/>
+    <mergeCell ref="T4:AN4"/>
+    <mergeCell ref="T5:AN5"/>
+    <mergeCell ref="T6:AN6"/>
+    <mergeCell ref="T7:AN7"/>
+    <mergeCell ref="A7:S7"/>
+    <mergeCell ref="A1:AN1"/>
+    <mergeCell ref="A2:AN3"/>
+    <mergeCell ref="A4:S4"/>
+    <mergeCell ref="A5:S5"/>
+    <mergeCell ref="A6:S6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.11" shapeId="1035" r:id="rId4">
-          <objectPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>68</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>92</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Visio.Drawing.11" shapeId="1035" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <oleObject progId="Visio.Drawing.11" shapeId="1035" r:id="rId4"/>
   </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
